--- a/data/reporting/end_user_to_system_role_report.xlsx
+++ b/data/reporting/end_user_to_system_role_report.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Role Mapping Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Report'!$A$4:$HB$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Mapping Report'!$A$4:$HD$7</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -427,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -544,45 +550,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -593,15 +569,6 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -610,15 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -629,29 +587,11 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -659,29 +599,11 @@
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -697,15 +619,6 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -717,12 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -753,6 +660,117 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,473 +1207,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HB231"/>
+  <dimension ref="A1:HD231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="17" width="6.5703125" style="7" customWidth="1"/>
-    <col min="18" max="100" width="6.5703125" style="8" customWidth="1"/>
-    <col min="101" max="101" width="38.7109375" style="8" customWidth="1"/>
-    <col min="102" max="191" width="6.5703125" style="8" customWidth="1"/>
-    <col min="192" max="192" width="12.42578125" style="8" customWidth="1"/>
-    <col min="193" max="195" width="6.5703125" style="8" customWidth="1"/>
-    <col min="196" max="197" width="6.5703125" style="7" customWidth="1"/>
-    <col min="198" max="237" width="6.5703125" style="6" customWidth="1"/>
-    <col min="238" max="16384" width="8.7109375" style="6"/>
+    <col min="18" max="102" width="6.5703125" style="8" customWidth="1"/>
+    <col min="103" max="103" width="38.7109375" style="8" customWidth="1"/>
+    <col min="104" max="193" width="6.5703125" style="8" customWidth="1"/>
+    <col min="194" max="194" width="12.42578125" style="8" customWidth="1"/>
+    <col min="195" max="197" width="6.5703125" style="8" customWidth="1"/>
+    <col min="198" max="199" width="6.5703125" style="7" customWidth="1"/>
+    <col min="200" max="239" width="6.5703125" style="6" customWidth="1"/>
+    <col min="240" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" s="40" customFormat="1" ht="6" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:212" s="40" customFormat="1" ht="6" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="112"/>
-      <c r="BQ1" s="112"/>
-      <c r="BR1" s="112"/>
-      <c r="BS1" s="112"/>
-      <c r="BT1" s="112"/>
-      <c r="BU1" s="112"/>
-      <c r="BV1" s="112"/>
-      <c r="BW1" s="112"/>
-      <c r="BX1" s="112"/>
-      <c r="BY1" s="112"/>
-      <c r="BZ1" s="112"/>
-      <c r="CA1" s="112"/>
-      <c r="CB1" s="112"/>
-      <c r="CC1" s="112"/>
-      <c r="CD1" s="112"/>
-      <c r="CE1" s="112"/>
-      <c r="CF1" s="112"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="112"/>
-      <c r="CI1" s="112"/>
-      <c r="CJ1" s="112"/>
-      <c r="CK1" s="112"/>
-      <c r="CL1" s="112"/>
-      <c r="CM1" s="112"/>
-      <c r="CN1" s="112"/>
-      <c r="CO1" s="112"/>
-      <c r="CP1" s="112"/>
-      <c r="CQ1" s="112"/>
-      <c r="CR1" s="112"/>
-      <c r="CS1" s="112"/>
-      <c r="CT1" s="112"/>
-      <c r="CU1" s="112"/>
-      <c r="CV1" s="112"/>
-      <c r="CW1" s="112"/>
-      <c r="CX1" s="112"/>
-      <c r="CY1" s="112"/>
-      <c r="CZ1" s="112"/>
-      <c r="DA1" s="112"/>
-      <c r="DB1" s="112"/>
-      <c r="DC1" s="112"/>
-      <c r="DD1" s="112"/>
-      <c r="DE1" s="112"/>
-      <c r="DF1" s="112"/>
-      <c r="DG1" s="112"/>
-      <c r="DH1" s="112"/>
-      <c r="DI1" s="112"/>
-      <c r="DJ1" s="112"/>
-      <c r="DK1" s="112"/>
-      <c r="DL1" s="112"/>
-      <c r="DM1" s="112"/>
-      <c r="DN1" s="112"/>
-      <c r="DO1" s="112"/>
-      <c r="DP1" s="112"/>
-      <c r="DQ1" s="112"/>
-      <c r="DR1" s="112"/>
-      <c r="DS1" s="112"/>
-      <c r="DT1" s="112"/>
-      <c r="DU1" s="112"/>
-      <c r="DV1" s="112"/>
-      <c r="DW1" s="112"/>
-      <c r="DX1" s="112"/>
-      <c r="DY1" s="112"/>
-      <c r="DZ1" s="112"/>
-      <c r="EA1" s="112"/>
-      <c r="EB1" s="112"/>
-      <c r="EC1" s="112"/>
-      <c r="ED1" s="112"/>
-      <c r="EE1" s="112"/>
-      <c r="EF1" s="112"/>
-      <c r="EG1" s="112"/>
-      <c r="EH1" s="112"/>
-      <c r="EI1" s="112"/>
-      <c r="EJ1" s="112"/>
-      <c r="EK1" s="112"/>
-      <c r="EL1" s="112"/>
-      <c r="EM1" s="112"/>
-      <c r="EN1" s="112"/>
-      <c r="EO1" s="112"/>
-      <c r="EP1" s="112"/>
-      <c r="EQ1" s="112"/>
-      <c r="ER1" s="112"/>
-      <c r="ES1" s="112"/>
-      <c r="ET1" s="112"/>
-      <c r="EU1" s="112"/>
-      <c r="EV1" s="112"/>
-      <c r="EW1" s="112"/>
-      <c r="EX1" s="112"/>
-      <c r="EY1" s="112"/>
-      <c r="EZ1" s="112"/>
-      <c r="FA1" s="112"/>
-      <c r="FB1" s="112"/>
-      <c r="FC1" s="112"/>
-      <c r="FD1" s="112"/>
-      <c r="FE1" s="112"/>
-      <c r="FF1" s="112"/>
-      <c r="FG1" s="112"/>
-      <c r="FH1" s="112"/>
-      <c r="FI1" s="112"/>
-      <c r="FJ1" s="112"/>
-      <c r="FK1" s="112"/>
-      <c r="FL1" s="112"/>
-      <c r="FM1" s="112"/>
-      <c r="FN1" s="112"/>
-      <c r="FO1" s="112"/>
-      <c r="FP1" s="112"/>
-      <c r="FQ1" s="112"/>
-      <c r="FR1" s="112"/>
-      <c r="FS1" s="112"/>
-      <c r="FT1" s="112"/>
-      <c r="FU1" s="112"/>
-      <c r="FV1" s="112"/>
-      <c r="FW1" s="112"/>
-      <c r="FX1" s="112"/>
-      <c r="FY1" s="112"/>
-      <c r="FZ1" s="112"/>
-      <c r="GA1" s="112"/>
-      <c r="GB1" s="112"/>
-      <c r="GC1" s="112"/>
-      <c r="GD1" s="112"/>
-      <c r="GE1" s="112"/>
-      <c r="GF1" s="112"/>
-      <c r="GG1" s="112"/>
-      <c r="GH1" s="112"/>
-      <c r="GI1" s="112"/>
-      <c r="GJ1" s="112"/>
-      <c r="GK1" s="112"/>
-      <c r="GL1" s="112"/>
-      <c r="GM1" s="113"/>
-      <c r="GN1" s="39"/>
-      <c r="GO1" s="39"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
+      <c r="BR1" s="79"/>
+      <c r="BS1" s="79"/>
+      <c r="BT1" s="79"/>
+      <c r="BU1" s="79"/>
+      <c r="BV1" s="79"/>
+      <c r="BW1" s="79"/>
+      <c r="BX1" s="79"/>
+      <c r="BY1" s="79"/>
+      <c r="BZ1" s="79"/>
+      <c r="CA1" s="79"/>
+      <c r="CB1" s="79"/>
+      <c r="CC1" s="79"/>
+      <c r="CD1" s="79"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="79"/>
+      <c r="CG1" s="79"/>
+      <c r="CH1" s="79"/>
+      <c r="CI1" s="79"/>
+      <c r="CJ1" s="79"/>
+      <c r="CK1" s="79"/>
+      <c r="CL1" s="79"/>
+      <c r="CM1" s="79"/>
+      <c r="CN1" s="79"/>
+      <c r="CO1" s="79"/>
+      <c r="CP1" s="79"/>
+      <c r="CQ1" s="79"/>
+      <c r="CR1" s="79"/>
+      <c r="CS1" s="79"/>
+      <c r="CT1" s="79"/>
+      <c r="CU1" s="79"/>
+      <c r="CV1" s="79"/>
+      <c r="CW1" s="79"/>
+      <c r="CX1" s="79"/>
+      <c r="CY1" s="79"/>
+      <c r="CZ1" s="79"/>
+      <c r="DA1" s="79"/>
+      <c r="DB1" s="79"/>
+      <c r="DC1" s="79"/>
+      <c r="DD1" s="79"/>
+      <c r="DE1" s="79"/>
+      <c r="DF1" s="79"/>
+      <c r="DG1" s="79"/>
+      <c r="DH1" s="79"/>
+      <c r="DI1" s="79"/>
+      <c r="DJ1" s="79"/>
+      <c r="DK1" s="79"/>
+      <c r="DL1" s="79"/>
+      <c r="DM1" s="79"/>
+      <c r="DN1" s="79"/>
+      <c r="DO1" s="79"/>
+      <c r="DP1" s="79"/>
+      <c r="DQ1" s="79"/>
+      <c r="DR1" s="79"/>
+      <c r="DS1" s="79"/>
+      <c r="DT1" s="79"/>
+      <c r="DU1" s="79"/>
+      <c r="DV1" s="79"/>
+      <c r="DW1" s="79"/>
+      <c r="DX1" s="79"/>
+      <c r="DY1" s="79"/>
+      <c r="DZ1" s="79"/>
+      <c r="EA1" s="79"/>
+      <c r="EB1" s="79"/>
+      <c r="EC1" s="79"/>
+      <c r="ED1" s="79"/>
+      <c r="EE1" s="79"/>
+      <c r="EF1" s="79"/>
+      <c r="EG1" s="79"/>
+      <c r="EH1" s="79"/>
+      <c r="EI1" s="79"/>
+      <c r="EJ1" s="79"/>
+      <c r="EK1" s="79"/>
+      <c r="EL1" s="79"/>
+      <c r="EM1" s="79"/>
+      <c r="EN1" s="79"/>
+      <c r="EO1" s="79"/>
+      <c r="EP1" s="79"/>
+      <c r="EQ1" s="79"/>
+      <c r="ER1" s="79"/>
+      <c r="ES1" s="79"/>
+      <c r="ET1" s="79"/>
+      <c r="EU1" s="79"/>
+      <c r="EV1" s="79"/>
+      <c r="EW1" s="79"/>
+      <c r="EX1" s="79"/>
+      <c r="EY1" s="79"/>
+      <c r="EZ1" s="79"/>
+      <c r="FA1" s="79"/>
+      <c r="FB1" s="79"/>
+      <c r="FC1" s="79"/>
+      <c r="FD1" s="79"/>
+      <c r="FE1" s="79"/>
+      <c r="FF1" s="79"/>
+      <c r="FG1" s="79"/>
+      <c r="FH1" s="79"/>
+      <c r="FI1" s="79"/>
+      <c r="FJ1" s="79"/>
+      <c r="FK1" s="79"/>
+      <c r="FL1" s="79"/>
+      <c r="FM1" s="79"/>
+      <c r="FN1" s="79"/>
+      <c r="FO1" s="79"/>
+      <c r="FP1" s="79"/>
+      <c r="FQ1" s="79"/>
+      <c r="FR1" s="79"/>
+      <c r="FS1" s="79"/>
+      <c r="FT1" s="79"/>
+      <c r="FU1" s="79"/>
+      <c r="FV1" s="79"/>
+      <c r="FW1" s="79"/>
+      <c r="FX1" s="79"/>
+      <c r="FY1" s="79"/>
+      <c r="FZ1" s="79"/>
+      <c r="GA1" s="79"/>
+      <c r="GB1" s="79"/>
+      <c r="GC1" s="79"/>
+      <c r="GD1" s="79"/>
+      <c r="GE1" s="79"/>
+      <c r="GF1" s="79"/>
+      <c r="GG1" s="79"/>
+      <c r="GH1" s="79"/>
+      <c r="GI1" s="79"/>
+      <c r="GJ1" s="79"/>
+      <c r="GK1" s="79"/>
+      <c r="GL1" s="79"/>
+      <c r="GM1" s="79"/>
+      <c r="GN1" s="79"/>
+      <c r="GO1" s="80"/>
+      <c r="GP1" s="39"/>
+      <c r="GQ1" s="39"/>
     </row>
-    <row r="2" spans="1:210" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:212" s="43" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="53" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="59" t="s">
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="71" t="s">
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="76" t="s">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
+      <c r="BJ2" s="91"/>
+      <c r="BK2" s="91"/>
+      <c r="BL2" s="91"/>
+      <c r="BM2" s="91"/>
+      <c r="BN2" s="91"/>
+      <c r="BO2" s="91"/>
+      <c r="BP2" s="91"/>
+      <c r="BQ2" s="91"/>
+      <c r="BR2" s="91"/>
+      <c r="BS2" s="91"/>
+      <c r="BT2" s="91"/>
+      <c r="BU2" s="92"/>
+      <c r="BV2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="77"/>
-      <c r="BY2" s="77"/>
-      <c r="BZ2" s="77"/>
-      <c r="CA2" s="77"/>
-      <c r="CB2" s="77"/>
-      <c r="CC2" s="77"/>
-      <c r="CD2" s="77"/>
-      <c r="CE2" s="77"/>
-      <c r="CF2" s="77"/>
-      <c r="CG2" s="77"/>
-      <c r="CH2" s="77"/>
-      <c r="CI2" s="77"/>
-      <c r="CJ2" s="77"/>
-      <c r="CK2" s="77"/>
-      <c r="CL2" s="77"/>
-      <c r="CM2" s="78"/>
-      <c r="CN2" s="81" t="s">
+      <c r="BW2" s="94"/>
+      <c r="BX2" s="94"/>
+      <c r="BY2" s="94"/>
+      <c r="BZ2" s="94"/>
+      <c r="CA2" s="94"/>
+      <c r="CB2" s="94"/>
+      <c r="CC2" s="94"/>
+      <c r="CD2" s="94"/>
+      <c r="CE2" s="94"/>
+      <c r="CF2" s="94"/>
+      <c r="CG2" s="94"/>
+      <c r="CH2" s="94"/>
+      <c r="CI2" s="94"/>
+      <c r="CJ2" s="94"/>
+      <c r="CK2" s="94"/>
+      <c r="CL2" s="94"/>
+      <c r="CM2" s="94"/>
+      <c r="CN2" s="94"/>
+      <c r="CO2" s="95"/>
+      <c r="CP2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="CO2" s="82"/>
-      <c r="CP2" s="82"/>
-      <c r="CQ2" s="82"/>
-      <c r="CR2" s="82"/>
-      <c r="CS2" s="83"/>
-      <c r="CT2" s="53" t="s">
+      <c r="CQ2" s="97"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="97"/>
+      <c r="CT2" s="97"/>
+      <c r="CU2" s="98"/>
+      <c r="CV2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="55"/>
-      <c r="CW2" s="89" t="s">
+      <c r="CW2" s="85"/>
+      <c r="CX2" s="86"/>
+      <c r="CY2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="CX2" s="48" t="s">
+      <c r="CZ2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49"/>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="49"/>
-      <c r="DH2" s="49"/>
-      <c r="DI2" s="49"/>
-      <c r="DJ2" s="49"/>
-      <c r="DK2" s="49"/>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="65" t="s">
+      <c r="DA2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
+      <c r="DI2" s="100"/>
+      <c r="DJ2" s="100"/>
+      <c r="DK2" s="100"/>
+      <c r="DL2" s="100"/>
+      <c r="DM2" s="100"/>
+      <c r="DN2" s="100"/>
+      <c r="DO2" s="101"/>
+      <c r="DP2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="DO2" s="66"/>
-      <c r="DP2" s="66"/>
-      <c r="DQ2" s="66"/>
-      <c r="DR2" s="66"/>
-      <c r="DS2" s="66"/>
-      <c r="DT2" s="66"/>
-      <c r="DU2" s="67"/>
-      <c r="DV2" s="81" t="s">
+      <c r="DQ2" s="103"/>
+      <c r="DR2" s="103"/>
+      <c r="DS2" s="103"/>
+      <c r="DT2" s="103"/>
+      <c r="DU2" s="103"/>
+      <c r="DV2" s="103"/>
+      <c r="DW2" s="104"/>
+      <c r="DX2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="DW2" s="82"/>
-      <c r="DX2" s="82"/>
-      <c r="DY2" s="82"/>
-      <c r="DZ2" s="82"/>
-      <c r="EA2" s="82"/>
-      <c r="EB2" s="83"/>
-      <c r="EC2" s="71" t="s">
+      <c r="DY2" s="97"/>
+      <c r="DZ2" s="97"/>
+      <c r="EA2" s="97"/>
+      <c r="EB2" s="97"/>
+      <c r="EC2" s="97"/>
+      <c r="ED2" s="98"/>
+      <c r="EE2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="ED2" s="72"/>
-      <c r="EE2" s="72"/>
-      <c r="EF2" s="72"/>
-      <c r="EG2" s="72"/>
-      <c r="EH2" s="72"/>
-      <c r="EI2" s="72"/>
-      <c r="EJ2" s="72"/>
-      <c r="EK2" s="72"/>
-      <c r="EL2" s="72"/>
-      <c r="EM2" s="72"/>
-      <c r="EN2" s="72"/>
-      <c r="EO2" s="72"/>
-      <c r="EP2" s="72"/>
-      <c r="EQ2" s="72"/>
-      <c r="ER2" s="72"/>
-      <c r="ES2" s="72"/>
-      <c r="ET2" s="72"/>
-      <c r="EU2" s="72"/>
-      <c r="EV2" s="72"/>
-      <c r="EW2" s="72"/>
-      <c r="EX2" s="72"/>
-      <c r="EY2" s="72"/>
-      <c r="EZ2" s="72"/>
-      <c r="FA2" s="72"/>
-      <c r="FB2" s="72"/>
-      <c r="FC2" s="72"/>
-      <c r="FD2" s="72"/>
-      <c r="FE2" s="72"/>
-      <c r="FF2" s="73"/>
-      <c r="FG2" s="95" t="s">
+      <c r="EF2" s="91"/>
+      <c r="EG2" s="91"/>
+      <c r="EH2" s="91"/>
+      <c r="EI2" s="91"/>
+      <c r="EJ2" s="91"/>
+      <c r="EK2" s="91"/>
+      <c r="EL2" s="91"/>
+      <c r="EM2" s="91"/>
+      <c r="EN2" s="91"/>
+      <c r="EO2" s="91"/>
+      <c r="EP2" s="91"/>
+      <c r="EQ2" s="91"/>
+      <c r="ER2" s="91"/>
+      <c r="ES2" s="91"/>
+      <c r="ET2" s="91"/>
+      <c r="EU2" s="91"/>
+      <c r="EV2" s="91"/>
+      <c r="EW2" s="91"/>
+      <c r="EX2" s="91"/>
+      <c r="EY2" s="91"/>
+      <c r="EZ2" s="91"/>
+      <c r="FA2" s="91"/>
+      <c r="FB2" s="91"/>
+      <c r="FC2" s="91"/>
+      <c r="FD2" s="91"/>
+      <c r="FE2" s="91"/>
+      <c r="FF2" s="91"/>
+      <c r="FG2" s="91"/>
+      <c r="FH2" s="92"/>
+      <c r="FI2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="FH2" s="96"/>
-      <c r="FI2" s="96"/>
-      <c r="FJ2" s="96"/>
-      <c r="FK2" s="96"/>
-      <c r="FL2" s="96"/>
-      <c r="FM2" s="96"/>
-      <c r="FN2" s="96"/>
-      <c r="FO2" s="96"/>
-      <c r="FP2" s="96"/>
-      <c r="FQ2" s="96"/>
-      <c r="FR2" s="96"/>
-      <c r="FS2" s="96"/>
-      <c r="FT2" s="96"/>
-      <c r="FU2" s="96"/>
-      <c r="FV2" s="96"/>
-      <c r="FW2" s="96"/>
-      <c r="FX2" s="96"/>
-      <c r="FY2" s="97"/>
-      <c r="FZ2" s="59" t="s">
+      <c r="FJ2" s="106"/>
+      <c r="FK2" s="106"/>
+      <c r="FL2" s="106"/>
+      <c r="FM2" s="106"/>
+      <c r="FN2" s="106"/>
+      <c r="FO2" s="106"/>
+      <c r="FP2" s="106"/>
+      <c r="FQ2" s="106"/>
+      <c r="FR2" s="106"/>
+      <c r="FS2" s="106"/>
+      <c r="FT2" s="106"/>
+      <c r="FU2" s="106"/>
+      <c r="FV2" s="106"/>
+      <c r="FW2" s="106"/>
+      <c r="FX2" s="106"/>
+      <c r="FY2" s="106"/>
+      <c r="FZ2" s="106"/>
+      <c r="GA2" s="107"/>
+      <c r="GB2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="GA2" s="60"/>
-      <c r="GB2" s="60"/>
-      <c r="GC2" s="60"/>
-      <c r="GD2" s="60"/>
-      <c r="GE2" s="60"/>
-      <c r="GF2" s="60"/>
-      <c r="GG2" s="60"/>
-      <c r="GH2" s="60"/>
-      <c r="GI2" s="61"/>
-      <c r="GJ2" s="90" t="s">
+      <c r="GC2" s="88"/>
+      <c r="GD2" s="88"/>
+      <c r="GE2" s="88"/>
+      <c r="GF2" s="88"/>
+      <c r="GG2" s="88"/>
+      <c r="GH2" s="88"/>
+      <c r="GI2" s="88"/>
+      <c r="GJ2" s="88"/>
+      <c r="GK2" s="89"/>
+      <c r="GL2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="GK2" s="102" t="s">
+      <c r="GM2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="GL2" s="103"/>
-      <c r="GM2" s="86" t="s">
+      <c r="GN2" s="109"/>
+      <c r="GO2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="GN2" s="87"/>
-      <c r="GO2" s="87"/>
-      <c r="GP2" s="87"/>
-      <c r="GQ2" s="87"/>
-      <c r="GR2" s="87"/>
-      <c r="GS2" s="87"/>
-      <c r="GT2" s="87"/>
-      <c r="GU2" s="87"/>
-      <c r="GV2" s="87"/>
-      <c r="GW2" s="87"/>
-      <c r="GX2" s="87"/>
-      <c r="GY2" s="87"/>
-      <c r="GZ2" s="87"/>
-      <c r="HA2" s="87"/>
-      <c r="HB2" s="88"/>
+      <c r="GP2" s="111"/>
+      <c r="GQ2" s="111"/>
+      <c r="GR2" s="111"/>
+      <c r="GS2" s="111"/>
+      <c r="GT2" s="111"/>
+      <c r="GU2" s="111"/>
+      <c r="GV2" s="111"/>
+      <c r="GW2" s="111"/>
+      <c r="GX2" s="111"/>
+      <c r="GY2" s="111"/>
+      <c r="GZ2" s="111"/>
+      <c r="HA2" s="111"/>
+      <c r="HB2" s="111"/>
+      <c r="HC2" s="111"/>
+      <c r="HD2" s="112"/>
     </row>
-    <row r="3" spans="1:210" s="1" customFormat="1" ht="226.5" customHeight="1">
+    <row r="3" spans="1:212" s="1" customFormat="1" ht="226.5" customHeight="1">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1673,415 +1695,419 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="79"/>
-      <c r="CE3" s="79"/>
-      <c r="CF3" s="79"/>
-      <c r="CG3" s="79"/>
-      <c r="CH3" s="79"/>
-      <c r="CI3" s="79"/>
-      <c r="CJ3" s="79"/>
-      <c r="CK3" s="79"/>
-      <c r="CL3" s="79"/>
-      <c r="CM3" s="79"/>
-      <c r="CN3" s="84"/>
-      <c r="CO3" s="84"/>
-      <c r="CP3" s="84"/>
-      <c r="CQ3" s="84"/>
-      <c r="CR3" s="84"/>
-      <c r="CS3" s="84"/>
-      <c r="CT3" s="56"/>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="79"/>
-      <c r="CX3" s="51"/>
-      <c r="CY3" s="51"/>
-      <c r="CZ3" s="51"/>
-      <c r="DA3" s="51"/>
-      <c r="DB3" s="51"/>
-      <c r="DC3" s="51"/>
-      <c r="DD3" s="51"/>
-      <c r="DE3" s="51"/>
-      <c r="DF3" s="51"/>
-      <c r="DG3" s="51"/>
-      <c r="DH3" s="51"/>
-      <c r="DI3" s="51"/>
-      <c r="DJ3" s="51"/>
-      <c r="DK3" s="51"/>
-      <c r="DL3" s="51"/>
-      <c r="DM3" s="51"/>
-      <c r="DN3" s="69"/>
-      <c r="DO3" s="68"/>
-      <c r="DP3" s="68"/>
-      <c r="DQ3" s="68"/>
-      <c r="DR3" s="68"/>
-      <c r="DS3" s="68"/>
-      <c r="DT3" s="68"/>
-      <c r="DU3" s="68"/>
-      <c r="DV3" s="92"/>
-      <c r="DW3" s="92"/>
-      <c r="DX3" s="92"/>
-      <c r="DY3" s="92"/>
-      <c r="DZ3" s="92"/>
-      <c r="EA3" s="92"/>
-      <c r="EB3" s="92"/>
-      <c r="EC3" s="93"/>
-      <c r="ED3" s="93"/>
-      <c r="EE3" s="93"/>
-      <c r="EF3" s="93"/>
-      <c r="EG3" s="93"/>
-      <c r="EH3" s="93"/>
-      <c r="EI3" s="93"/>
-      <c r="EJ3" s="93"/>
-      <c r="EK3" s="93"/>
-      <c r="EL3" s="93"/>
-      <c r="EM3" s="93"/>
-      <c r="EN3" s="93"/>
-      <c r="EO3" s="93"/>
-      <c r="EP3" s="93"/>
-      <c r="EQ3" s="93"/>
-      <c r="ER3" s="93"/>
-      <c r="ES3" s="93"/>
-      <c r="ET3" s="93"/>
-      <c r="EU3" s="93"/>
-      <c r="EV3" s="93"/>
-      <c r="EW3" s="93"/>
-      <c r="EX3" s="93"/>
-      <c r="EY3" s="93"/>
-      <c r="EZ3" s="93"/>
-      <c r="FA3" s="93"/>
-      <c r="FB3" s="93"/>
-      <c r="FC3" s="93"/>
-      <c r="FD3" s="93"/>
-      <c r="FE3" s="93"/>
-      <c r="FF3" s="93"/>
-      <c r="FG3" s="98"/>
-      <c r="FH3" s="98"/>
-      <c r="FI3" s="98"/>
-      <c r="FJ3" s="98"/>
-      <c r="FK3" s="98"/>
-      <c r="FL3" s="98"/>
-      <c r="FM3" s="98"/>
-      <c r="FN3" s="98"/>
-      <c r="FO3" s="98"/>
-      <c r="FP3" s="98"/>
-      <c r="FQ3" s="98"/>
-      <c r="FR3" s="98"/>
-      <c r="FS3" s="98"/>
-      <c r="FT3" s="98"/>
-      <c r="FU3" s="98"/>
-      <c r="FV3" s="98"/>
-      <c r="FW3" s="98"/>
-      <c r="FX3" s="98"/>
-      <c r="FY3" s="98"/>
-      <c r="FZ3" s="62"/>
-      <c r="GA3" s="62"/>
-      <c r="GB3" s="62"/>
-      <c r="GC3" s="62"/>
-      <c r="GD3" s="62"/>
-      <c r="GE3" s="62"/>
-      <c r="GF3" s="62"/>
-      <c r="GG3" s="62"/>
-      <c r="GH3" s="62"/>
-      <c r="GI3" s="62"/>
-      <c r="GJ3" s="94"/>
-      <c r="GK3" s="104"/>
-      <c r="GL3" s="104"/>
-      <c r="GM3" s="107"/>
-      <c r="GN3" s="107"/>
-      <c r="GO3" s="107"/>
-      <c r="GP3" s="107"/>
-      <c r="GQ3" s="107"/>
-      <c r="GR3" s="107"/>
-      <c r="GS3" s="107"/>
-      <c r="GT3" s="107"/>
-      <c r="GU3" s="107"/>
-      <c r="GV3" s="107"/>
-      <c r="GW3" s="107"/>
-      <c r="GX3" s="107"/>
-      <c r="GY3" s="107"/>
-      <c r="GZ3" s="107"/>
-      <c r="HA3" s="107"/>
-      <c r="HB3" s="107"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="55"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="57"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="57"/>
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="57"/>
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="59"/>
+      <c r="CQ3" s="59"/>
+      <c r="CR3" s="59"/>
+      <c r="CS3" s="59"/>
+      <c r="CT3" s="59"/>
+      <c r="CU3" s="59"/>
+      <c r="CV3" s="46"/>
+      <c r="CW3" s="46"/>
+      <c r="CX3" s="46"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="44"/>
+      <c r="DA3" s="44"/>
+      <c r="DB3" s="44"/>
+      <c r="DC3" s="44"/>
+      <c r="DD3" s="44"/>
+      <c r="DE3" s="44"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="44"/>
+      <c r="DH3" s="44"/>
+      <c r="DI3" s="44"/>
+      <c r="DJ3" s="44"/>
+      <c r="DK3" s="44"/>
+      <c r="DL3" s="44"/>
+      <c r="DM3" s="44"/>
+      <c r="DN3" s="44"/>
+      <c r="DO3" s="44"/>
+      <c r="DP3" s="53"/>
+      <c r="DQ3" s="52"/>
+      <c r="DR3" s="52"/>
+      <c r="DS3" s="52"/>
+      <c r="DT3" s="52"/>
+      <c r="DU3" s="52"/>
+      <c r="DV3" s="52"/>
+      <c r="DW3" s="52"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="64"/>
+      <c r="DZ3" s="64"/>
+      <c r="EA3" s="64"/>
+      <c r="EB3" s="64"/>
+      <c r="EC3" s="64"/>
+      <c r="ED3" s="64"/>
+      <c r="EE3" s="65"/>
+      <c r="EF3" s="65"/>
+      <c r="EG3" s="65"/>
+      <c r="EH3" s="65"/>
+      <c r="EI3" s="65"/>
+      <c r="EJ3" s="65"/>
+      <c r="EK3" s="65"/>
+      <c r="EL3" s="65"/>
+      <c r="EM3" s="65"/>
+      <c r="EN3" s="65"/>
+      <c r="EO3" s="65"/>
+      <c r="EP3" s="65"/>
+      <c r="EQ3" s="65"/>
+      <c r="ER3" s="65"/>
+      <c r="ES3" s="65"/>
+      <c r="ET3" s="65"/>
+      <c r="EU3" s="65"/>
+      <c r="EV3" s="65"/>
+      <c r="EW3" s="65"/>
+      <c r="EX3" s="65"/>
+      <c r="EY3" s="65"/>
+      <c r="EZ3" s="65"/>
+      <c r="FA3" s="65"/>
+      <c r="FB3" s="65"/>
+      <c r="FC3" s="65"/>
+      <c r="FD3" s="65"/>
+      <c r="FE3" s="65"/>
+      <c r="FF3" s="65"/>
+      <c r="FG3" s="65"/>
+      <c r="FH3" s="65"/>
+      <c r="FI3" s="67"/>
+      <c r="FJ3" s="67"/>
+      <c r="FK3" s="67"/>
+      <c r="FL3" s="67"/>
+      <c r="FM3" s="67"/>
+      <c r="FN3" s="67"/>
+      <c r="FO3" s="67"/>
+      <c r="FP3" s="67"/>
+      <c r="FQ3" s="67"/>
+      <c r="FR3" s="67"/>
+      <c r="FS3" s="67"/>
+      <c r="FT3" s="67"/>
+      <c r="FU3" s="67"/>
+      <c r="FV3" s="67"/>
+      <c r="FW3" s="67"/>
+      <c r="FX3" s="67"/>
+      <c r="FY3" s="67"/>
+      <c r="FZ3" s="67"/>
+      <c r="GA3" s="67"/>
+      <c r="GB3" s="49"/>
+      <c r="GC3" s="49"/>
+      <c r="GD3" s="49"/>
+      <c r="GE3" s="49"/>
+      <c r="GF3" s="49"/>
+      <c r="GG3" s="49"/>
+      <c r="GH3" s="49"/>
+      <c r="GI3" s="49"/>
+      <c r="GJ3" s="49"/>
+      <c r="GK3" s="49"/>
+      <c r="GL3" s="66"/>
+      <c r="GM3" s="71"/>
+      <c r="GN3" s="71"/>
+      <c r="GO3" s="74"/>
+      <c r="GP3" s="74"/>
+      <c r="GQ3" s="74"/>
+      <c r="GR3" s="74"/>
+      <c r="GS3" s="74"/>
+      <c r="GT3" s="74"/>
+      <c r="GU3" s="74"/>
+      <c r="GV3" s="74"/>
+      <c r="GW3" s="74"/>
+      <c r="GX3" s="74"/>
+      <c r="GY3" s="74"/>
+      <c r="GZ3" s="74"/>
+      <c r="HA3" s="74"/>
+      <c r="HB3" s="74"/>
+      <c r="HC3" s="74"/>
+      <c r="HD3" s="74"/>
     </row>
-    <row r="4" spans="1:210" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="1:212" s="5" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="75"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="75"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="75"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="75"/>
-      <c r="BN4" s="75"/>
-      <c r="BO4" s="75"/>
-      <c r="BP4" s="75"/>
-      <c r="BQ4" s="75"/>
-      <c r="BR4" s="75"/>
-      <c r="BS4" s="75"/>
-      <c r="BT4" s="80"/>
-      <c r="BU4" s="80"/>
-      <c r="BV4" s="80"/>
-      <c r="BW4" s="80"/>
-      <c r="BX4" s="80"/>
-      <c r="BY4" s="80"/>
-      <c r="BZ4" s="80"/>
-      <c r="CA4" s="80"/>
-      <c r="CB4" s="80"/>
-      <c r="CC4" s="80"/>
-      <c r="CD4" s="80"/>
-      <c r="CE4" s="80"/>
-      <c r="CF4" s="80"/>
-      <c r="CG4" s="80"/>
-      <c r="CH4" s="80"/>
-      <c r="CI4" s="80"/>
-      <c r="CJ4" s="80"/>
-      <c r="CK4" s="80"/>
-      <c r="CL4" s="80"/>
-      <c r="CM4" s="80"/>
-      <c r="CN4" s="85"/>
-      <c r="CO4" s="85"/>
-      <c r="CP4" s="85"/>
-      <c r="CQ4" s="85"/>
-      <c r="CR4" s="85"/>
-      <c r="CS4" s="85"/>
-      <c r="CT4" s="58"/>
-      <c r="CU4" s="58"/>
-      <c r="CV4" s="58"/>
-      <c r="CW4" s="80"/>
-      <c r="CX4" s="52"/>
-      <c r="CY4" s="52"/>
-      <c r="CZ4" s="52"/>
-      <c r="DA4" s="52"/>
-      <c r="DB4" s="52"/>
-      <c r="DC4" s="52"/>
-      <c r="DD4" s="52"/>
-      <c r="DE4" s="52"/>
-      <c r="DF4" s="52"/>
-      <c r="DG4" s="52"/>
-      <c r="DH4" s="52"/>
-      <c r="DI4" s="52"/>
-      <c r="DJ4" s="52"/>
-      <c r="DK4" s="52"/>
-      <c r="DL4" s="52"/>
-      <c r="DM4" s="52"/>
-      <c r="DN4" s="70"/>
-      <c r="DO4" s="70"/>
-      <c r="DP4" s="70"/>
-      <c r="DQ4" s="70"/>
-      <c r="DR4" s="70"/>
-      <c r="DS4" s="70"/>
-      <c r="DT4" s="70"/>
-      <c r="DU4" s="70"/>
-      <c r="DV4" s="85"/>
-      <c r="DW4" s="85"/>
-      <c r="DX4" s="85"/>
-      <c r="DY4" s="85"/>
-      <c r="DZ4" s="85"/>
-      <c r="EA4" s="85"/>
-      <c r="EB4" s="85"/>
-      <c r="EC4" s="75"/>
-      <c r="ED4" s="75"/>
-      <c r="EE4" s="75"/>
-      <c r="EF4" s="75"/>
-      <c r="EG4" s="75"/>
-      <c r="EH4" s="75"/>
-      <c r="EI4" s="75"/>
-      <c r="EJ4" s="75"/>
-      <c r="EK4" s="75"/>
-      <c r="EL4" s="75"/>
-      <c r="EM4" s="75"/>
-      <c r="EN4" s="75"/>
-      <c r="EO4" s="75"/>
-      <c r="EP4" s="75"/>
-      <c r="EQ4" s="75"/>
-      <c r="ER4" s="75"/>
-      <c r="ES4" s="75"/>
-      <c r="ET4" s="75"/>
-      <c r="EU4" s="75"/>
-      <c r="EV4" s="75"/>
-      <c r="EW4" s="75"/>
-      <c r="EX4" s="75"/>
-      <c r="EY4" s="75"/>
-      <c r="EZ4" s="75"/>
-      <c r="FA4" s="75"/>
-      <c r="FB4" s="75"/>
-      <c r="FC4" s="75"/>
-      <c r="FD4" s="75"/>
-      <c r="FE4" s="75"/>
-      <c r="FF4" s="75"/>
-      <c r="FG4" s="99"/>
-      <c r="FH4" s="99"/>
-      <c r="FI4" s="99"/>
-      <c r="FJ4" s="99"/>
-      <c r="FK4" s="99"/>
-      <c r="FL4" s="99"/>
-      <c r="FM4" s="99"/>
-      <c r="FN4" s="99"/>
-      <c r="FO4" s="99"/>
-      <c r="FP4" s="99"/>
-      <c r="FQ4" s="99"/>
-      <c r="FR4" s="99"/>
-      <c r="FS4" s="99"/>
-      <c r="FT4" s="99"/>
-      <c r="FU4" s="99"/>
-      <c r="FV4" s="100"/>
-      <c r="FW4" s="100"/>
-      <c r="FX4" s="100"/>
-      <c r="FY4" s="100"/>
-      <c r="FZ4" s="101"/>
-      <c r="GA4" s="101"/>
-      <c r="GB4" s="101"/>
-      <c r="GC4" s="101"/>
-      <c r="GD4" s="64"/>
-      <c r="GE4" s="64"/>
-      <c r="GF4" s="64"/>
-      <c r="GG4" s="64"/>
-      <c r="GH4" s="64"/>
-      <c r="GI4" s="64"/>
-      <c r="GJ4" s="91"/>
-      <c r="GK4" s="105"/>
-      <c r="GL4" s="106"/>
-      <c r="GM4" s="108"/>
-      <c r="GN4" s="108"/>
-      <c r="GO4" s="109"/>
-      <c r="GP4" s="110"/>
-      <c r="GQ4" s="110"/>
-      <c r="GR4" s="110"/>
-      <c r="GS4" s="110"/>
-      <c r="GT4" s="110"/>
-      <c r="GU4" s="110"/>
-      <c r="GV4" s="110"/>
-      <c r="GW4" s="110"/>
-      <c r="GX4" s="110"/>
-      <c r="GY4" s="110"/>
-      <c r="GZ4" s="110"/>
-      <c r="HA4" s="110"/>
-      <c r="HB4" s="110"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="58"/>
+      <c r="BX4" s="58"/>
+      <c r="BY4" s="58"/>
+      <c r="BZ4" s="58"/>
+      <c r="CA4" s="58"/>
+      <c r="CB4" s="58"/>
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="58"/>
+      <c r="CF4" s="58"/>
+      <c r="CG4" s="58"/>
+      <c r="CH4" s="58"/>
+      <c r="CI4" s="58"/>
+      <c r="CJ4" s="58"/>
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="58"/>
+      <c r="CN4" s="58"/>
+      <c r="CO4" s="58"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
+      <c r="CX4" s="48"/>
+      <c r="CY4" s="58"/>
+      <c r="CZ4" s="45"/>
+      <c r="DA4" s="45"/>
+      <c r="DB4" s="45"/>
+      <c r="DC4" s="45"/>
+      <c r="DD4" s="45"/>
+      <c r="DE4" s="45"/>
+      <c r="DF4" s="45"/>
+      <c r="DG4" s="45"/>
+      <c r="DH4" s="45"/>
+      <c r="DI4" s="45"/>
+      <c r="DJ4" s="45"/>
+      <c r="DK4" s="45"/>
+      <c r="DL4" s="45"/>
+      <c r="DM4" s="45"/>
+      <c r="DN4" s="45"/>
+      <c r="DO4" s="45"/>
+      <c r="DP4" s="54"/>
+      <c r="DQ4" s="54"/>
+      <c r="DR4" s="54"/>
+      <c r="DS4" s="54"/>
+      <c r="DT4" s="54"/>
+      <c r="DU4" s="54"/>
+      <c r="DV4" s="54"/>
+      <c r="DW4" s="54"/>
+      <c r="DX4" s="60"/>
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="56"/>
+      <c r="EF4" s="56"/>
+      <c r="EG4" s="56"/>
+      <c r="EH4" s="56"/>
+      <c r="EI4" s="56"/>
+      <c r="EJ4" s="56"/>
+      <c r="EK4" s="56"/>
+      <c r="EL4" s="56"/>
+      <c r="EM4" s="56"/>
+      <c r="EN4" s="56"/>
+      <c r="EO4" s="56"/>
+      <c r="EP4" s="56"/>
+      <c r="EQ4" s="56"/>
+      <c r="ER4" s="56"/>
+      <c r="ES4" s="56"/>
+      <c r="ET4" s="56"/>
+      <c r="EU4" s="56"/>
+      <c r="EV4" s="56"/>
+      <c r="EW4" s="56"/>
+      <c r="EX4" s="56"/>
+      <c r="EY4" s="56"/>
+      <c r="EZ4" s="56"/>
+      <c r="FA4" s="56"/>
+      <c r="FB4" s="56"/>
+      <c r="FC4" s="56"/>
+      <c r="FD4" s="56"/>
+      <c r="FE4" s="56"/>
+      <c r="FF4" s="56"/>
+      <c r="FG4" s="56"/>
+      <c r="FH4" s="56"/>
+      <c r="FI4" s="68"/>
+      <c r="FJ4" s="68"/>
+      <c r="FK4" s="68"/>
+      <c r="FL4" s="68"/>
+      <c r="FM4" s="68"/>
+      <c r="FN4" s="68"/>
+      <c r="FO4" s="68"/>
+      <c r="FP4" s="68"/>
+      <c r="FQ4" s="68"/>
+      <c r="FR4" s="68"/>
+      <c r="FS4" s="68"/>
+      <c r="FT4" s="68"/>
+      <c r="FU4" s="68"/>
+      <c r="FV4" s="68"/>
+      <c r="FW4" s="68"/>
+      <c r="FX4" s="69"/>
+      <c r="FY4" s="69"/>
+      <c r="FZ4" s="69"/>
+      <c r="GA4" s="69"/>
+      <c r="GB4" s="70"/>
+      <c r="GC4" s="70"/>
+      <c r="GD4" s="70"/>
+      <c r="GE4" s="70"/>
+      <c r="GF4" s="51"/>
+      <c r="GG4" s="51"/>
+      <c r="GH4" s="51"/>
+      <c r="GI4" s="51"/>
+      <c r="GJ4" s="51"/>
+      <c r="GK4" s="51"/>
+      <c r="GL4" s="63"/>
+      <c r="GM4" s="72"/>
+      <c r="GN4" s="73"/>
+      <c r="GO4" s="75"/>
+      <c r="GP4" s="75"/>
+      <c r="GQ4" s="76"/>
+      <c r="GR4" s="77"/>
+      <c r="GS4" s="77"/>
+      <c r="GT4" s="77"/>
+      <c r="GU4" s="77"/>
+      <c r="GV4" s="77"/>
+      <c r="GW4" s="77"/>
+      <c r="GX4" s="77"/>
+      <c r="GY4" s="77"/>
+      <c r="GZ4" s="77"/>
+      <c r="HA4" s="77"/>
+      <c r="HB4" s="77"/>
+      <c r="HC4" s="77"/>
+      <c r="HD4" s="77"/>
     </row>
-    <row r="5" spans="1:210" s="12" customFormat="1" ht="26.25" customHeight="1">
+    <row r="5" spans="1:212" s="12" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2101,9 +2127,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -2199,88 +2225,90 @@
       <c r="DK5" s="4"/>
       <c r="DL5" s="4"/>
       <c r="DM5" s="4"/>
-      <c r="DN5" s="16"/>
-      <c r="DO5" s="17"/>
-      <c r="DP5" s="18"/>
-      <c r="DQ5" s="18"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="17"/>
       <c r="DR5" s="18"/>
-      <c r="DS5" s="17"/>
+      <c r="DS5" s="18"/>
       <c r="DT5" s="18"/>
-      <c r="DU5" s="18"/>
-      <c r="DV5" s="17"/>
-      <c r="DW5" s="17"/>
-      <c r="DX5" s="18"/>
+      <c r="DU5" s="17"/>
+      <c r="DV5" s="18"/>
+      <c r="DW5" s="18"/>
+      <c r="DX5" s="17"/>
       <c r="DY5" s="17"/>
       <c r="DZ5" s="18"/>
-      <c r="EA5" s="18"/>
+      <c r="EA5" s="17"/>
       <c r="EB5" s="18"/>
-      <c r="EC5" s="17"/>
+      <c r="EC5" s="18"/>
       <c r="ED5" s="18"/>
-      <c r="EE5" s="18"/>
-      <c r="EF5" s="17"/>
+      <c r="EE5" s="17"/>
+      <c r="EF5" s="18"/>
       <c r="EG5" s="18"/>
-      <c r="EH5" s="18"/>
+      <c r="EH5" s="17"/>
       <c r="EI5" s="18"/>
-      <c r="EJ5" s="17"/>
+      <c r="EJ5" s="18"/>
       <c r="EK5" s="18"/>
-      <c r="EL5" s="18"/>
+      <c r="EL5" s="17"/>
       <c r="EM5" s="18"/>
-      <c r="EN5" s="17"/>
+      <c r="EN5" s="18"/>
       <c r="EO5" s="18"/>
       <c r="EP5" s="17"/>
       <c r="EQ5" s="18"/>
-      <c r="ER5" s="18"/>
-      <c r="ES5" s="17"/>
-      <c r="ET5" s="17"/>
-      <c r="EU5" s="18"/>
-      <c r="EV5" s="18"/>
-      <c r="EW5" s="17"/>
+      <c r="ER5" s="17"/>
+      <c r="ES5" s="18"/>
+      <c r="ET5" s="18"/>
+      <c r="EU5" s="17"/>
+      <c r="EV5" s="17"/>
+      <c r="EW5" s="18"/>
       <c r="EX5" s="18"/>
-      <c r="EY5" s="18"/>
-      <c r="EZ5" s="17"/>
+      <c r="EY5" s="17"/>
+      <c r="EZ5" s="18"/>
       <c r="FA5" s="18"/>
-      <c r="FB5" s="18"/>
+      <c r="FB5" s="17"/>
       <c r="FC5" s="18"/>
-      <c r="FD5" s="17"/>
+      <c r="FD5" s="18"/>
       <c r="FE5" s="18"/>
-      <c r="FF5" s="18"/>
+      <c r="FF5" s="17"/>
       <c r="FG5" s="18"/>
-      <c r="FH5" s="17"/>
-      <c r="FI5" s="17"/>
-      <c r="FJ5" s="18"/>
+      <c r="FH5" s="18"/>
+      <c r="FI5" s="18"/>
+      <c r="FJ5" s="17"/>
       <c r="FK5" s="17"/>
       <c r="FL5" s="18"/>
-      <c r="FM5" s="18"/>
-      <c r="FN5" s="17"/>
+      <c r="FM5" s="17"/>
+      <c r="FN5" s="18"/>
       <c r="FO5" s="18"/>
-      <c r="FP5" s="18"/>
-      <c r="FQ5" s="17"/>
+      <c r="FP5" s="17"/>
+      <c r="FQ5" s="18"/>
       <c r="FR5" s="18"/>
-      <c r="FS5" s="18"/>
-      <c r="FT5" s="17"/>
+      <c r="FS5" s="17"/>
+      <c r="FT5" s="18"/>
       <c r="FU5" s="18"/>
       <c r="FV5" s="17"/>
-      <c r="FW5" s="17"/>
-      <c r="FX5" s="18"/>
-      <c r="FY5" s="18"/>
-      <c r="FZ5" s="17"/>
+      <c r="FW5" s="18"/>
+      <c r="FX5" s="17"/>
+      <c r="FY5" s="17"/>
+      <c r="FZ5" s="18"/>
       <c r="GA5" s="18"/>
-      <c r="GB5" s="18"/>
-      <c r="GC5" s="17"/>
-      <c r="GD5" s="17"/>
-      <c r="GE5" s="18"/>
-      <c r="GF5" s="18"/>
-      <c r="GG5" s="17"/>
+      <c r="GB5" s="17"/>
+      <c r="GC5" s="18"/>
+      <c r="GD5" s="18"/>
+      <c r="GE5" s="17"/>
+      <c r="GF5" s="17"/>
+      <c r="GG5" s="18"/>
       <c r="GH5" s="18"/>
-      <c r="GI5" s="18"/>
+      <c r="GI5" s="17"/>
       <c r="GJ5" s="18"/>
-      <c r="GK5" s="17"/>
+      <c r="GK5" s="18"/>
       <c r="GL5" s="18"/>
-      <c r="GM5" s="18"/>
-      <c r="GN5" s="19"/>
-      <c r="GO5" s="20"/>
+      <c r="GM5" s="17"/>
+      <c r="GN5" s="18"/>
+      <c r="GO5" s="18"/>
+      <c r="GP5" s="19"/>
+      <c r="GQ5" s="20"/>
     </row>
-    <row r="6" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="6" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2300,124 +2328,124 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="25"/>
+      <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="27"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="20"/>
       <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="27"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="27"/>
+      <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20"/>
-      <c r="AM6" s="27"/>
+      <c r="AM6" s="20"/>
       <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
+      <c r="AO6" s="27"/>
       <c r="AP6" s="20"/>
       <c r="AQ6" s="20"/>
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
       <c r="AT6" s="20"/>
       <c r="AU6" s="20"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
       <c r="BB6" s="27"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="27"/>
-      <c r="BF6" s="27"/>
-      <c r="BG6" s="20"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="27"/>
       <c r="BH6" s="27"/>
       <c r="BI6" s="20"/>
-      <c r="BJ6" s="20"/>
+      <c r="BJ6" s="27"/>
       <c r="BK6" s="20"/>
-      <c r="BL6" s="27"/>
-      <c r="BM6" s="27"/>
-      <c r="BN6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="27"/>
       <c r="BO6" s="27"/>
       <c r="BP6" s="20"/>
       <c r="BQ6" s="27"/>
       <c r="BR6" s="20"/>
-      <c r="BS6" s="20"/>
+      <c r="BS6" s="27"/>
       <c r="BT6" s="20"/>
-      <c r="BU6" s="27"/>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="20"/>
-      <c r="BX6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
       <c r="BY6" s="20"/>
-      <c r="BZ6" s="27"/>
+      <c r="BZ6" s="20"/>
       <c r="CA6" s="20"/>
       <c r="CB6" s="27"/>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="27"/>
       <c r="CE6" s="27"/>
-      <c r="CF6" s="27"/>
-      <c r="CG6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="27"/>
       <c r="CH6" s="27"/>
-      <c r="CI6" s="27"/>
+      <c r="CI6" s="20"/>
       <c r="CJ6" s="27"/>
-      <c r="CK6" s="20"/>
-      <c r="CL6" s="20"/>
-      <c r="CM6" s="27"/>
-      <c r="CN6" s="27"/>
-      <c r="CO6" s="20"/>
+      <c r="CK6" s="27"/>
+      <c r="CL6" s="27"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="27"/>
       <c r="CP6" s="27"/>
-      <c r="CQ6" s="27"/>
-      <c r="CR6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="27"/>
       <c r="CS6" s="27"/>
-      <c r="CT6" s="27"/>
-      <c r="CU6" s="20"/>
-      <c r="CV6" s="20"/>
-      <c r="CW6" s="27"/>
-      <c r="CX6" s="27"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="27"/>
+      <c r="CV6" s="27"/>
+      <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
       <c r="CY6" s="27"/>
-      <c r="CZ6" s="20"/>
-      <c r="DA6" s="20"/>
+      <c r="CZ6" s="27"/>
+      <c r="DA6" s="27"/>
       <c r="DB6" s="20"/>
       <c r="DC6" s="20"/>
       <c r="DD6" s="20"/>
       <c r="DE6" s="20"/>
-      <c r="DF6" s="27"/>
+      <c r="DF6" s="20"/>
       <c r="DG6" s="20"/>
-      <c r="DH6" s="20"/>
+      <c r="DH6" s="27"/>
       <c r="DI6" s="20"/>
-      <c r="DJ6" s="27"/>
-      <c r="DK6" s="27"/>
+      <c r="DJ6" s="20"/>
+      <c r="DK6" s="20"/>
       <c r="DL6" s="27"/>
-      <c r="DM6" s="20"/>
-      <c r="DN6" s="28"/>
-      <c r="DO6" s="29"/>
-      <c r="DP6" s="30"/>
-      <c r="DQ6" s="30"/>
-      <c r="DR6" s="29"/>
-      <c r="DS6" s="29"/>
+      <c r="DM6" s="27"/>
+      <c r="DN6" s="27"/>
+      <c r="DO6" s="20"/>
+      <c r="DP6" s="28"/>
+      <c r="DQ6" s="29"/>
+      <c r="DR6" s="30"/>
+      <c r="DS6" s="30"/>
       <c r="DT6" s="29"/>
-      <c r="DU6" s="30"/>
+      <c r="DU6" s="29"/>
       <c r="DV6" s="29"/>
-      <c r="DW6" s="29"/>
+      <c r="DW6" s="30"/>
       <c r="DX6" s="29"/>
       <c r="DY6" s="29"/>
-      <c r="DZ6" s="30"/>
+      <c r="DZ6" s="29"/>
       <c r="EA6" s="29"/>
       <c r="EB6" s="30"/>
       <c r="EC6" s="29"/>
       <c r="ED6" s="30"/>
       <c r="EE6" s="29"/>
-      <c r="EF6" s="29"/>
-      <c r="EG6" s="30"/>
+      <c r="EF6" s="30"/>
+      <c r="EG6" s="29"/>
       <c r="EH6" s="29"/>
       <c r="EI6" s="30"/>
       <c r="EJ6" s="29"/>
@@ -2427,43 +2455,43 @@
       <c r="EN6" s="29"/>
       <c r="EO6" s="30"/>
       <c r="EP6" s="29"/>
-      <c r="EQ6" s="29"/>
-      <c r="ER6" s="30"/>
+      <c r="EQ6" s="30"/>
+      <c r="ER6" s="29"/>
       <c r="ES6" s="29"/>
-      <c r="ET6" s="29"/>
-      <c r="EU6" s="30"/>
-      <c r="EV6" s="30"/>
-      <c r="EW6" s="29"/>
+      <c r="ET6" s="30"/>
+      <c r="EU6" s="29"/>
+      <c r="EV6" s="29"/>
+      <c r="EW6" s="30"/>
       <c r="EX6" s="30"/>
       <c r="EY6" s="29"/>
       <c r="EZ6" s="30"/>
-      <c r="FA6" s="30"/>
-      <c r="FB6" s="29"/>
+      <c r="FA6" s="29"/>
+      <c r="FB6" s="30"/>
       <c r="FC6" s="30"/>
       <c r="FD6" s="29"/>
       <c r="FE6" s="30"/>
       <c r="FF6" s="29"/>
-      <c r="FG6" s="29"/>
-      <c r="FH6" s="30"/>
-      <c r="FI6" s="30"/>
-      <c r="FJ6" s="29"/>
-      <c r="FK6" s="29"/>
-      <c r="FL6" s="30"/>
+      <c r="FG6" s="30"/>
+      <c r="FH6" s="29"/>
+      <c r="FI6" s="29"/>
+      <c r="FJ6" s="30"/>
+      <c r="FK6" s="30"/>
+      <c r="FL6" s="29"/>
       <c r="FM6" s="29"/>
-      <c r="FN6" s="29"/>
-      <c r="FO6" s="30"/>
+      <c r="FN6" s="30"/>
+      <c r="FO6" s="29"/>
       <c r="FP6" s="29"/>
       <c r="FQ6" s="30"/>
       <c r="FR6" s="29"/>
       <c r="FS6" s="30"/>
       <c r="FT6" s="29"/>
       <c r="FU6" s="30"/>
-      <c r="FV6" s="30"/>
-      <c r="FW6" s="29"/>
+      <c r="FV6" s="29"/>
+      <c r="FW6" s="30"/>
       <c r="FX6" s="30"/>
       <c r="FY6" s="29"/>
-      <c r="FZ6" s="29"/>
-      <c r="GA6" s="30"/>
+      <c r="FZ6" s="30"/>
+      <c r="GA6" s="29"/>
       <c r="GB6" s="29"/>
       <c r="GC6" s="30"/>
       <c r="GD6" s="29"/>
@@ -2471,15 +2499,17 @@
       <c r="GF6" s="29"/>
       <c r="GG6" s="30"/>
       <c r="GH6" s="29"/>
-      <c r="GI6" s="29"/>
-      <c r="GJ6" s="30"/>
+      <c r="GI6" s="30"/>
+      <c r="GJ6" s="29"/>
       <c r="GK6" s="29"/>
       <c r="GL6" s="30"/>
       <c r="GM6" s="29"/>
-      <c r="GN6" s="19"/>
-      <c r="GO6" s="20"/>
+      <c r="GN6" s="30"/>
+      <c r="GO6" s="29"/>
+      <c r="GP6" s="19"/>
+      <c r="GQ6" s="20"/>
     </row>
-    <row r="7" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="7" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2499,53 +2529,53 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
-      <c r="T7" s="25"/>
+      <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="27"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
-      <c r="AH7" s="20"/>
+      <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="27"/>
       <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
       <c r="AR7" s="27"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
       <c r="AU7" s="20"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
       <c r="AX7" s="27"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
       <c r="BA7" s="20"/>
       <c r="BB7" s="20"/>
-      <c r="BC7" s="27"/>
-      <c r="BD7" s="27"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
       <c r="BE7" s="27"/>
       <c r="BF7" s="27"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="27"/>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="20"/>
       <c r="BJ7" s="20"/>
       <c r="BK7" s="27"/>
       <c r="BL7" s="20"/>
       <c r="BM7" s="27"/>
-      <c r="BN7" s="27"/>
+      <c r="BN7" s="20"/>
       <c r="BO7" s="27"/>
       <c r="BP7" s="27"/>
       <c r="BQ7" s="27"/>
@@ -2553,132 +2583,134 @@
       <c r="BS7" s="27"/>
       <c r="BT7" s="27"/>
       <c r="BU7" s="27"/>
-      <c r="BV7" s="20"/>
-      <c r="BW7" s="20"/>
-      <c r="BX7" s="27"/>
-      <c r="BY7" s="27"/>
-      <c r="BZ7" s="20"/>
+      <c r="BV7" s="27"/>
+      <c r="BW7" s="27"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="27"/>
       <c r="CA7" s="27"/>
       <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
+      <c r="CC7" s="27"/>
       <c r="CD7" s="20"/>
-      <c r="CE7" s="27"/>
-      <c r="CF7" s="27"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
       <c r="CG7" s="27"/>
       <c r="CH7" s="27"/>
       <c r="CI7" s="27"/>
       <c r="CJ7" s="27"/>
       <c r="CK7" s="27"/>
       <c r="CL7" s="27"/>
-      <c r="CM7" s="20"/>
+      <c r="CM7" s="27"/>
       <c r="CN7" s="27"/>
-      <c r="CO7" s="27"/>
-      <c r="CP7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="27"/>
       <c r="CQ7" s="27"/>
-      <c r="CR7" s="27"/>
+      <c r="CR7" s="20"/>
       <c r="CS7" s="27"/>
       <c r="CT7" s="27"/>
-      <c r="CU7" s="20"/>
+      <c r="CU7" s="27"/>
       <c r="CV7" s="27"/>
-      <c r="CW7" s="27"/>
-      <c r="CX7" s="20"/>
-      <c r="CY7" s="20"/>
+      <c r="CW7" s="20"/>
+      <c r="CX7" s="27"/>
+      <c r="CY7" s="27"/>
       <c r="CZ7" s="20"/>
-      <c r="DA7" s="27"/>
+      <c r="DA7" s="20"/>
       <c r="DB7" s="20"/>
-      <c r="DC7" s="20"/>
-      <c r="DD7" s="27"/>
+      <c r="DC7" s="27"/>
+      <c r="DD7" s="20"/>
       <c r="DE7" s="20"/>
-      <c r="DF7" s="20"/>
+      <c r="DF7" s="27"/>
       <c r="DG7" s="20"/>
       <c r="DH7" s="20"/>
       <c r="DI7" s="20"/>
-      <c r="DJ7" s="27"/>
-      <c r="DK7" s="27"/>
+      <c r="DJ7" s="20"/>
+      <c r="DK7" s="20"/>
       <c r="DL7" s="27"/>
-      <c r="DM7" s="20"/>
-      <c r="DN7" s="32"/>
-      <c r="DO7" s="29"/>
-      <c r="DP7" s="29"/>
+      <c r="DM7" s="27"/>
+      <c r="DN7" s="27"/>
+      <c r="DO7" s="20"/>
+      <c r="DP7" s="32"/>
       <c r="DQ7" s="29"/>
-      <c r="DR7" s="30"/>
+      <c r="DR7" s="29"/>
       <c r="DS7" s="29"/>
       <c r="DT7" s="30"/>
       <c r="DU7" s="29"/>
-      <c r="DV7" s="29"/>
+      <c r="DV7" s="30"/>
       <c r="DW7" s="29"/>
-      <c r="DX7" s="30"/>
+      <c r="DX7" s="29"/>
       <c r="DY7" s="29"/>
-      <c r="DZ7" s="29"/>
-      <c r="EA7" s="30"/>
+      <c r="DZ7" s="30"/>
+      <c r="EA7" s="29"/>
       <c r="EB7" s="29"/>
-      <c r="EC7" s="29"/>
+      <c r="EC7" s="30"/>
       <c r="ED7" s="29"/>
-      <c r="EE7" s="30"/>
+      <c r="EE7" s="29"/>
       <c r="EF7" s="29"/>
-      <c r="EG7" s="29"/>
-      <c r="EH7" s="30"/>
+      <c r="EG7" s="30"/>
+      <c r="EH7" s="29"/>
       <c r="EI7" s="29"/>
-      <c r="EJ7" s="29"/>
+      <c r="EJ7" s="30"/>
       <c r="EK7" s="29"/>
-      <c r="EL7" s="30"/>
+      <c r="EL7" s="29"/>
       <c r="EM7" s="29"/>
-      <c r="EN7" s="29"/>
+      <c r="EN7" s="30"/>
       <c r="EO7" s="29"/>
-      <c r="EP7" s="30"/>
-      <c r="EQ7" s="30"/>
+      <c r="EP7" s="29"/>
+      <c r="EQ7" s="29"/>
       <c r="ER7" s="30"/>
-      <c r="ES7" s="29"/>
-      <c r="ET7" s="29"/>
-      <c r="EU7" s="30"/>
+      <c r="ES7" s="30"/>
+      <c r="ET7" s="30"/>
+      <c r="EU7" s="29"/>
       <c r="EV7" s="29"/>
-      <c r="EW7" s="29"/>
+      <c r="EW7" s="30"/>
       <c r="EX7" s="29"/>
-      <c r="EY7" s="30"/>
-      <c r="EZ7" s="30"/>
-      <c r="FA7" s="29"/>
+      <c r="EY7" s="29"/>
+      <c r="EZ7" s="29"/>
+      <c r="FA7" s="30"/>
       <c r="FB7" s="30"/>
       <c r="FC7" s="29"/>
-      <c r="FD7" s="29"/>
+      <c r="FD7" s="30"/>
       <c r="FE7" s="29"/>
-      <c r="FF7" s="30"/>
-      <c r="FG7" s="30"/>
-      <c r="FH7" s="29"/>
-      <c r="FI7" s="29"/>
-      <c r="FJ7" s="30"/>
+      <c r="FF7" s="29"/>
+      <c r="FG7" s="29"/>
+      <c r="FH7" s="30"/>
+      <c r="FI7" s="30"/>
+      <c r="FJ7" s="29"/>
       <c r="FK7" s="29"/>
-      <c r="FL7" s="29"/>
-      <c r="FM7" s="30"/>
+      <c r="FL7" s="30"/>
+      <c r="FM7" s="29"/>
       <c r="FN7" s="29"/>
-      <c r="FO7" s="29"/>
-      <c r="FP7" s="30"/>
+      <c r="FO7" s="30"/>
+      <c r="FP7" s="29"/>
       <c r="FQ7" s="29"/>
       <c r="FR7" s="30"/>
       <c r="FS7" s="29"/>
-      <c r="FT7" s="29"/>
+      <c r="FT7" s="30"/>
       <c r="FU7" s="29"/>
-      <c r="FV7" s="30"/>
+      <c r="FV7" s="29"/>
       <c r="FW7" s="29"/>
-      <c r="FX7" s="29"/>
-      <c r="FY7" s="30"/>
+      <c r="FX7" s="30"/>
+      <c r="FY7" s="29"/>
       <c r="FZ7" s="29"/>
-      <c r="GA7" s="29"/>
-      <c r="GB7" s="30"/>
+      <c r="GA7" s="30"/>
+      <c r="GB7" s="29"/>
       <c r="GC7" s="29"/>
-      <c r="GD7" s="29"/>
+      <c r="GD7" s="30"/>
       <c r="GE7" s="29"/>
-      <c r="GF7" s="30"/>
+      <c r="GF7" s="29"/>
       <c r="GG7" s="29"/>
       <c r="GH7" s="30"/>
-      <c r="GI7" s="30"/>
-      <c r="GJ7" s="29"/>
-      <c r="GK7" s="29"/>
-      <c r="GL7" s="30"/>
-      <c r="GM7" s="30"/>
-      <c r="GN7" s="19"/>
-      <c r="GO7" s="20"/>
+      <c r="GI7" s="29"/>
+      <c r="GJ7" s="30"/>
+      <c r="GK7" s="30"/>
+      <c r="GL7" s="29"/>
+      <c r="GM7" s="29"/>
+      <c r="GN7" s="30"/>
+      <c r="GO7" s="30"/>
+      <c r="GP7" s="19"/>
+      <c r="GQ7" s="20"/>
     </row>
-    <row r="8" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="8" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2797,8 +2829,8 @@
       <c r="DL8" s="27"/>
       <c r="DM8" s="27"/>
       <c r="DN8" s="27"/>
-      <c r="DO8" s="33"/>
-      <c r="DP8" s="33"/>
+      <c r="DO8" s="27"/>
+      <c r="DP8" s="27"/>
       <c r="DQ8" s="33"/>
       <c r="DR8" s="33"/>
       <c r="DS8" s="33"/>
@@ -2840,9 +2872,9 @@
       <c r="FC8" s="33"/>
       <c r="FD8" s="33"/>
       <c r="FE8" s="33"/>
-      <c r="FF8" s="34"/>
-      <c r="FG8" s="29"/>
-      <c r="FH8" s="29"/>
+      <c r="FF8" s="33"/>
+      <c r="FG8" s="33"/>
+      <c r="FH8" s="34"/>
       <c r="FI8" s="29"/>
       <c r="FJ8" s="29"/>
       <c r="FK8" s="29"/>
@@ -2851,9 +2883,9 @@
       <c r="FN8" s="29"/>
       <c r="FO8" s="29"/>
       <c r="FP8" s="29"/>
-      <c r="FQ8" s="35"/>
-      <c r="FR8" s="33"/>
-      <c r="FS8" s="33"/>
+      <c r="FQ8" s="29"/>
+      <c r="FR8" s="29"/>
+      <c r="FS8" s="35"/>
       <c r="FT8" s="33"/>
       <c r="FU8" s="33"/>
       <c r="FV8" s="33"/>
@@ -2874,10 +2906,12 @@
       <c r="GK8" s="33"/>
       <c r="GL8" s="33"/>
       <c r="GM8" s="33"/>
-      <c r="GN8" s="20"/>
-      <c r="GO8" s="20"/>
+      <c r="GN8" s="33"/>
+      <c r="GO8" s="33"/>
+      <c r="GP8" s="20"/>
+      <c r="GQ8" s="20"/>
     </row>
-    <row r="9" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="9" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3040,8 +3074,8 @@
       <c r="FD9" s="27"/>
       <c r="FE9" s="27"/>
       <c r="FF9" s="27"/>
-      <c r="FG9" s="33"/>
-      <c r="FH9" s="33"/>
+      <c r="FG9" s="27"/>
+      <c r="FH9" s="27"/>
       <c r="FI9" s="33"/>
       <c r="FJ9" s="33"/>
       <c r="FK9" s="33"/>
@@ -3050,8 +3084,8 @@
       <c r="FN9" s="33"/>
       <c r="FO9" s="33"/>
       <c r="FP9" s="33"/>
-      <c r="FQ9" s="27"/>
-      <c r="FR9" s="27"/>
+      <c r="FQ9" s="33"/>
+      <c r="FR9" s="33"/>
       <c r="FS9" s="27"/>
       <c r="FT9" s="27"/>
       <c r="FU9" s="27"/>
@@ -3073,10 +3107,12 @@
       <c r="GK9" s="27"/>
       <c r="GL9" s="27"/>
       <c r="GM9" s="27"/>
-      <c r="GN9" s="20"/>
-      <c r="GO9" s="20"/>
+      <c r="GN9" s="27"/>
+      <c r="GO9" s="27"/>
+      <c r="GP9" s="20"/>
+      <c r="GQ9" s="20"/>
     </row>
-    <row r="10" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="10" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3272,10 +3308,12 @@
       <c r="GK10" s="27"/>
       <c r="GL10" s="27"/>
       <c r="GM10" s="27"/>
-      <c r="GN10" s="20"/>
-      <c r="GO10" s="20"/>
+      <c r="GN10" s="27"/>
+      <c r="GO10" s="27"/>
+      <c r="GP10" s="20"/>
+      <c r="GQ10" s="20"/>
     </row>
-    <row r="11" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="11" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3471,10 +3509,12 @@
       <c r="GK11" s="27"/>
       <c r="GL11" s="27"/>
       <c r="GM11" s="27"/>
-      <c r="GN11" s="20"/>
-      <c r="GO11" s="20"/>
+      <c r="GN11" s="27"/>
+      <c r="GO11" s="27"/>
+      <c r="GP11" s="20"/>
+      <c r="GQ11" s="20"/>
     </row>
-    <row r="12" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="12" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3670,10 +3710,12 @@
       <c r="GK12" s="27"/>
       <c r="GL12" s="27"/>
       <c r="GM12" s="27"/>
-      <c r="GN12" s="20"/>
-      <c r="GO12" s="20"/>
+      <c r="GN12" s="27"/>
+      <c r="GO12" s="27"/>
+      <c r="GP12" s="20"/>
+      <c r="GQ12" s="20"/>
     </row>
-    <row r="13" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="13" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -3869,10 +3911,12 @@
       <c r="GK13" s="27"/>
       <c r="GL13" s="27"/>
       <c r="GM13" s="27"/>
-      <c r="GN13" s="20"/>
-      <c r="GO13" s="20"/>
+      <c r="GN13" s="27"/>
+      <c r="GO13" s="27"/>
+      <c r="GP13" s="20"/>
+      <c r="GQ13" s="20"/>
     </row>
-    <row r="14" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -4068,10 +4112,12 @@
       <c r="GK14" s="27"/>
       <c r="GL14" s="27"/>
       <c r="GM14" s="27"/>
-      <c r="GN14" s="20"/>
-      <c r="GO14" s="20"/>
+      <c r="GN14" s="27"/>
+      <c r="GO14" s="27"/>
+      <c r="GP14" s="20"/>
+      <c r="GQ14" s="20"/>
     </row>
-    <row r="15" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="15" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -4267,10 +4313,12 @@
       <c r="GK15" s="27"/>
       <c r="GL15" s="27"/>
       <c r="GM15" s="27"/>
-      <c r="GN15" s="20"/>
-      <c r="GO15" s="20"/>
+      <c r="GN15" s="27"/>
+      <c r="GO15" s="27"/>
+      <c r="GP15" s="20"/>
+      <c r="GQ15" s="20"/>
     </row>
-    <row r="16" spans="1:210" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="16" spans="1:212" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -4466,10 +4514,12 @@
       <c r="GK16" s="27"/>
       <c r="GL16" s="27"/>
       <c r="GM16" s="27"/>
-      <c r="GN16" s="20"/>
-      <c r="GO16" s="20"/>
+      <c r="GN16" s="27"/>
+      <c r="GO16" s="27"/>
+      <c r="GP16" s="20"/>
+      <c r="GQ16" s="20"/>
     </row>
-    <row r="17" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="17" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -4665,10 +4715,12 @@
       <c r="GK17" s="27"/>
       <c r="GL17" s="27"/>
       <c r="GM17" s="27"/>
-      <c r="GN17" s="20"/>
-      <c r="GO17" s="20"/>
+      <c r="GN17" s="27"/>
+      <c r="GO17" s="27"/>
+      <c r="GP17" s="20"/>
+      <c r="GQ17" s="20"/>
     </row>
-    <row r="18" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="18" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -4864,10 +4916,12 @@
       <c r="GK18" s="27"/>
       <c r="GL18" s="27"/>
       <c r="GM18" s="27"/>
-      <c r="GN18" s="20"/>
-      <c r="GO18" s="20"/>
+      <c r="GN18" s="27"/>
+      <c r="GO18" s="27"/>
+      <c r="GP18" s="20"/>
+      <c r="GQ18" s="20"/>
     </row>
-    <row r="19" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="19" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -5063,10 +5117,12 @@
       <c r="GK19" s="27"/>
       <c r="GL19" s="27"/>
       <c r="GM19" s="27"/>
-      <c r="GN19" s="20"/>
-      <c r="GO19" s="20"/>
+      <c r="GN19" s="27"/>
+      <c r="GO19" s="27"/>
+      <c r="GP19" s="20"/>
+      <c r="GQ19" s="20"/>
     </row>
-    <row r="20" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="20" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -5262,10 +5318,12 @@
       <c r="GK20" s="27"/>
       <c r="GL20" s="27"/>
       <c r="GM20" s="27"/>
-      <c r="GN20" s="20"/>
-      <c r="GO20" s="20"/>
+      <c r="GN20" s="27"/>
+      <c r="GO20" s="27"/>
+      <c r="GP20" s="20"/>
+      <c r="GQ20" s="20"/>
     </row>
-    <row r="21" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="21" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -5461,10 +5519,12 @@
       <c r="GK21" s="27"/>
       <c r="GL21" s="27"/>
       <c r="GM21" s="27"/>
-      <c r="GN21" s="20"/>
-      <c r="GO21" s="20"/>
+      <c r="GN21" s="27"/>
+      <c r="GO21" s="27"/>
+      <c r="GP21" s="20"/>
+      <c r="GQ21" s="20"/>
     </row>
-    <row r="22" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="22" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -5660,10 +5720,12 @@
       <c r="GK22" s="20"/>
       <c r="GL22" s="20"/>
       <c r="GM22" s="20"/>
-      <c r="GN22" s="21"/>
-      <c r="GO22" s="21"/>
+      <c r="GN22" s="20"/>
+      <c r="GO22" s="20"/>
+      <c r="GP22" s="21"/>
+      <c r="GQ22" s="21"/>
     </row>
-    <row r="23" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="23" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -5859,10 +5921,12 @@
       <c r="GK23" s="20"/>
       <c r="GL23" s="20"/>
       <c r="GM23" s="20"/>
-      <c r="GN23" s="21"/>
-      <c r="GO23" s="21"/>
+      <c r="GN23" s="20"/>
+      <c r="GO23" s="20"/>
+      <c r="GP23" s="21"/>
+      <c r="GQ23" s="21"/>
     </row>
-    <row r="24" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="24" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -6058,10 +6122,12 @@
       <c r="GK24" s="20"/>
       <c r="GL24" s="20"/>
       <c r="GM24" s="20"/>
-      <c r="GN24" s="21"/>
-      <c r="GO24" s="21"/>
+      <c r="GN24" s="20"/>
+      <c r="GO24" s="20"/>
+      <c r="GP24" s="21"/>
+      <c r="GQ24" s="21"/>
     </row>
-    <row r="25" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="25" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6257,10 +6323,12 @@
       <c r="GK25" s="20"/>
       <c r="GL25" s="20"/>
       <c r="GM25" s="20"/>
-      <c r="GN25" s="21"/>
-      <c r="GO25" s="21"/>
+      <c r="GN25" s="20"/>
+      <c r="GO25" s="20"/>
+      <c r="GP25" s="21"/>
+      <c r="GQ25" s="21"/>
     </row>
-    <row r="26" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="26" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -6456,10 +6524,12 @@
       <c r="GK26" s="20"/>
       <c r="GL26" s="20"/>
       <c r="GM26" s="20"/>
-      <c r="GN26" s="21"/>
-      <c r="GO26" s="21"/>
+      <c r="GN26" s="20"/>
+      <c r="GO26" s="20"/>
+      <c r="GP26" s="21"/>
+      <c r="GQ26" s="21"/>
     </row>
-    <row r="27" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -6655,10 +6725,12 @@
       <c r="GK27" s="20"/>
       <c r="GL27" s="20"/>
       <c r="GM27" s="20"/>
-      <c r="GN27" s="21"/>
-      <c r="GO27" s="21"/>
+      <c r="GN27" s="20"/>
+      <c r="GO27" s="20"/>
+      <c r="GP27" s="21"/>
+      <c r="GQ27" s="21"/>
     </row>
-    <row r="28" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="28" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -6854,10 +6926,12 @@
       <c r="GK28" s="20"/>
       <c r="GL28" s="20"/>
       <c r="GM28" s="20"/>
-      <c r="GN28" s="21"/>
-      <c r="GO28" s="21"/>
+      <c r="GN28" s="20"/>
+      <c r="GO28" s="20"/>
+      <c r="GP28" s="21"/>
+      <c r="GQ28" s="21"/>
     </row>
-    <row r="29" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="29" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -7053,10 +7127,12 @@
       <c r="GK29" s="20"/>
       <c r="GL29" s="20"/>
       <c r="GM29" s="20"/>
-      <c r="GN29" s="21"/>
-      <c r="GO29" s="21"/>
+      <c r="GN29" s="20"/>
+      <c r="GO29" s="20"/>
+      <c r="GP29" s="21"/>
+      <c r="GQ29" s="21"/>
     </row>
-    <row r="30" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="30" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -7252,10 +7328,12 @@
       <c r="GK30" s="20"/>
       <c r="GL30" s="20"/>
       <c r="GM30" s="20"/>
-      <c r="GN30" s="21"/>
-      <c r="GO30" s="21"/>
+      <c r="GN30" s="20"/>
+      <c r="GO30" s="20"/>
+      <c r="GP30" s="21"/>
+      <c r="GQ30" s="21"/>
     </row>
-    <row r="31" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="31" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -7451,10 +7529,12 @@
       <c r="GK31" s="20"/>
       <c r="GL31" s="20"/>
       <c r="GM31" s="20"/>
-      <c r="GN31" s="21"/>
-      <c r="GO31" s="21"/>
+      <c r="GN31" s="20"/>
+      <c r="GO31" s="20"/>
+      <c r="GP31" s="21"/>
+      <c r="GQ31" s="21"/>
     </row>
-    <row r="32" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="32" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -7650,10 +7730,12 @@
       <c r="GK32" s="20"/>
       <c r="GL32" s="20"/>
       <c r="GM32" s="20"/>
-      <c r="GN32" s="21"/>
-      <c r="GO32" s="21"/>
+      <c r="GN32" s="20"/>
+      <c r="GO32" s="20"/>
+      <c r="GP32" s="21"/>
+      <c r="GQ32" s="21"/>
     </row>
-    <row r="33" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="33" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7849,10 +7931,12 @@
       <c r="GK33" s="20"/>
       <c r="GL33" s="20"/>
       <c r="GM33" s="20"/>
-      <c r="GN33" s="21"/>
-      <c r="GO33" s="21"/>
+      <c r="GN33" s="20"/>
+      <c r="GO33" s="20"/>
+      <c r="GP33" s="21"/>
+      <c r="GQ33" s="21"/>
     </row>
-    <row r="34" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="34" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -8048,10 +8132,12 @@
       <c r="GK34" s="20"/>
       <c r="GL34" s="20"/>
       <c r="GM34" s="20"/>
-      <c r="GN34" s="21"/>
-      <c r="GO34" s="21"/>
+      <c r="GN34" s="20"/>
+      <c r="GO34" s="20"/>
+      <c r="GP34" s="21"/>
+      <c r="GQ34" s="21"/>
     </row>
-    <row r="35" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="35" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -8247,10 +8333,12 @@
       <c r="GK35" s="20"/>
       <c r="GL35" s="20"/>
       <c r="GM35" s="20"/>
-      <c r="GN35" s="21"/>
-      <c r="GO35" s="21"/>
+      <c r="GN35" s="20"/>
+      <c r="GO35" s="20"/>
+      <c r="GP35" s="21"/>
+      <c r="GQ35" s="21"/>
     </row>
-    <row r="36" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="36" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -8446,10 +8534,12 @@
       <c r="GK36" s="20"/>
       <c r="GL36" s="20"/>
       <c r="GM36" s="20"/>
-      <c r="GN36" s="21"/>
-      <c r="GO36" s="21"/>
+      <c r="GN36" s="20"/>
+      <c r="GO36" s="20"/>
+      <c r="GP36" s="21"/>
+      <c r="GQ36" s="21"/>
     </row>
-    <row r="37" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="37" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -8645,10 +8735,12 @@
       <c r="GK37" s="20"/>
       <c r="GL37" s="20"/>
       <c r="GM37" s="20"/>
-      <c r="GN37" s="21"/>
-      <c r="GO37" s="21"/>
+      <c r="GN37" s="20"/>
+      <c r="GO37" s="20"/>
+      <c r="GP37" s="21"/>
+      <c r="GQ37" s="21"/>
     </row>
-    <row r="38" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="38" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -8844,10 +8936,12 @@
       <c r="GK38" s="20"/>
       <c r="GL38" s="20"/>
       <c r="GM38" s="20"/>
-      <c r="GN38" s="21"/>
-      <c r="GO38" s="21"/>
+      <c r="GN38" s="20"/>
+      <c r="GO38" s="20"/>
+      <c r="GP38" s="21"/>
+      <c r="GQ38" s="21"/>
     </row>
-    <row r="39" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="39" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -9043,10 +9137,12 @@
       <c r="GK39" s="20"/>
       <c r="GL39" s="20"/>
       <c r="GM39" s="20"/>
-      <c r="GN39" s="21"/>
-      <c r="GO39" s="21"/>
+      <c r="GN39" s="20"/>
+      <c r="GO39" s="20"/>
+      <c r="GP39" s="21"/>
+      <c r="GQ39" s="21"/>
     </row>
-    <row r="40" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="40" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -9242,10 +9338,12 @@
       <c r="GK40" s="20"/>
       <c r="GL40" s="20"/>
       <c r="GM40" s="20"/>
-      <c r="GN40" s="21"/>
-      <c r="GO40" s="21"/>
+      <c r="GN40" s="20"/>
+      <c r="GO40" s="20"/>
+      <c r="GP40" s="21"/>
+      <c r="GQ40" s="21"/>
     </row>
-    <row r="41" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="41" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -9441,10 +9539,12 @@
       <c r="GK41" s="20"/>
       <c r="GL41" s="20"/>
       <c r="GM41" s="20"/>
-      <c r="GN41" s="21"/>
-      <c r="GO41" s="21"/>
+      <c r="GN41" s="20"/>
+      <c r="GO41" s="20"/>
+      <c r="GP41" s="21"/>
+      <c r="GQ41" s="21"/>
     </row>
-    <row r="42" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="42" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -9640,10 +9740,12 @@
       <c r="GK42" s="20"/>
       <c r="GL42" s="20"/>
       <c r="GM42" s="20"/>
-      <c r="GN42" s="21"/>
-      <c r="GO42" s="21"/>
+      <c r="GN42" s="20"/>
+      <c r="GO42" s="20"/>
+      <c r="GP42" s="21"/>
+      <c r="GQ42" s="21"/>
     </row>
-    <row r="43" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="43" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -9839,10 +9941,12 @@
       <c r="GK43" s="20"/>
       <c r="GL43" s="20"/>
       <c r="GM43" s="20"/>
-      <c r="GN43" s="21"/>
-      <c r="GO43" s="21"/>
+      <c r="GN43" s="20"/>
+      <c r="GO43" s="20"/>
+      <c r="GP43" s="21"/>
+      <c r="GQ43" s="21"/>
     </row>
-    <row r="44" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="44" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -10038,10 +10142,12 @@
       <c r="GK44" s="20"/>
       <c r="GL44" s="20"/>
       <c r="GM44" s="20"/>
-      <c r="GN44" s="21"/>
-      <c r="GO44" s="21"/>
+      <c r="GN44" s="20"/>
+      <c r="GO44" s="20"/>
+      <c r="GP44" s="21"/>
+      <c r="GQ44" s="21"/>
     </row>
-    <row r="45" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="45" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -10237,10 +10343,12 @@
       <c r="GK45" s="20"/>
       <c r="GL45" s="20"/>
       <c r="GM45" s="20"/>
-      <c r="GN45" s="21"/>
-      <c r="GO45" s="21"/>
+      <c r="GN45" s="20"/>
+      <c r="GO45" s="20"/>
+      <c r="GP45" s="21"/>
+      <c r="GQ45" s="21"/>
     </row>
-    <row r="46" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="46" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -10436,10 +10544,12 @@
       <c r="GK46" s="20"/>
       <c r="GL46" s="20"/>
       <c r="GM46" s="20"/>
-      <c r="GN46" s="21"/>
-      <c r="GO46" s="21"/>
+      <c r="GN46" s="20"/>
+      <c r="GO46" s="20"/>
+      <c r="GP46" s="21"/>
+      <c r="GQ46" s="21"/>
     </row>
-    <row r="47" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="47" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -10635,10 +10745,12 @@
       <c r="GK47" s="20"/>
       <c r="GL47" s="20"/>
       <c r="GM47" s="20"/>
-      <c r="GN47" s="21"/>
-      <c r="GO47" s="21"/>
+      <c r="GN47" s="20"/>
+      <c r="GO47" s="20"/>
+      <c r="GP47" s="21"/>
+      <c r="GQ47" s="21"/>
     </row>
-    <row r="48" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="48" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -10834,10 +10946,12 @@
       <c r="GK48" s="20"/>
       <c r="GL48" s="20"/>
       <c r="GM48" s="20"/>
-      <c r="GN48" s="21"/>
-      <c r="GO48" s="21"/>
+      <c r="GN48" s="20"/>
+      <c r="GO48" s="20"/>
+      <c r="GP48" s="21"/>
+      <c r="GQ48" s="21"/>
     </row>
-    <row r="49" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="49" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -11033,10 +11147,12 @@
       <c r="GK49" s="20"/>
       <c r="GL49" s="20"/>
       <c r="GM49" s="20"/>
-      <c r="GN49" s="21"/>
-      <c r="GO49" s="21"/>
+      <c r="GN49" s="20"/>
+      <c r="GO49" s="20"/>
+      <c r="GP49" s="21"/>
+      <c r="GQ49" s="21"/>
     </row>
-    <row r="50" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="50" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -11232,10 +11348,12 @@
       <c r="GK50" s="20"/>
       <c r="GL50" s="20"/>
       <c r="GM50" s="20"/>
-      <c r="GN50" s="21"/>
-      <c r="GO50" s="21"/>
+      <c r="GN50" s="20"/>
+      <c r="GO50" s="20"/>
+      <c r="GP50" s="21"/>
+      <c r="GQ50" s="21"/>
     </row>
-    <row r="51" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="51" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -11431,10 +11549,12 @@
       <c r="GK51" s="20"/>
       <c r="GL51" s="20"/>
       <c r="GM51" s="20"/>
-      <c r="GN51" s="21"/>
-      <c r="GO51" s="21"/>
+      <c r="GN51" s="20"/>
+      <c r="GO51" s="20"/>
+      <c r="GP51" s="21"/>
+      <c r="GQ51" s="21"/>
     </row>
-    <row r="52" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="52" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -11630,10 +11750,12 @@
       <c r="GK52" s="20"/>
       <c r="GL52" s="20"/>
       <c r="GM52" s="20"/>
-      <c r="GN52" s="21"/>
-      <c r="GO52" s="21"/>
+      <c r="GN52" s="20"/>
+      <c r="GO52" s="20"/>
+      <c r="GP52" s="21"/>
+      <c r="GQ52" s="21"/>
     </row>
-    <row r="53" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="53" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -11829,10 +11951,12 @@
       <c r="GK53" s="20"/>
       <c r="GL53" s="20"/>
       <c r="GM53" s="20"/>
-      <c r="GN53" s="21"/>
-      <c r="GO53" s="21"/>
+      <c r="GN53" s="20"/>
+      <c r="GO53" s="20"/>
+      <c r="GP53" s="21"/>
+      <c r="GQ53" s="21"/>
     </row>
-    <row r="54" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="54" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -12028,10 +12152,12 @@
       <c r="GK54" s="20"/>
       <c r="GL54" s="20"/>
       <c r="GM54" s="20"/>
-      <c r="GN54" s="21"/>
-      <c r="GO54" s="21"/>
+      <c r="GN54" s="20"/>
+      <c r="GO54" s="20"/>
+      <c r="GP54" s="21"/>
+      <c r="GQ54" s="21"/>
     </row>
-    <row r="55" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="55" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -12227,10 +12353,12 @@
       <c r="GK55" s="20"/>
       <c r="GL55" s="20"/>
       <c r="GM55" s="20"/>
-      <c r="GN55" s="21"/>
-      <c r="GO55" s="21"/>
+      <c r="GN55" s="20"/>
+      <c r="GO55" s="20"/>
+      <c r="GP55" s="21"/>
+      <c r="GQ55" s="21"/>
     </row>
-    <row r="56" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="56" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -12426,10 +12554,12 @@
       <c r="GK56" s="20"/>
       <c r="GL56" s="20"/>
       <c r="GM56" s="20"/>
-      <c r="GN56" s="21"/>
-      <c r="GO56" s="21"/>
+      <c r="GN56" s="20"/>
+      <c r="GO56" s="20"/>
+      <c r="GP56" s="21"/>
+      <c r="GQ56" s="21"/>
     </row>
-    <row r="57" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="57" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -12625,10 +12755,12 @@
       <c r="GK57" s="20"/>
       <c r="GL57" s="20"/>
       <c r="GM57" s="20"/>
-      <c r="GN57" s="21"/>
-      <c r="GO57" s="21"/>
+      <c r="GN57" s="20"/>
+      <c r="GO57" s="20"/>
+      <c r="GP57" s="21"/>
+      <c r="GQ57" s="21"/>
     </row>
-    <row r="58" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="58" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -12824,10 +12956,12 @@
       <c r="GK58" s="20"/>
       <c r="GL58" s="20"/>
       <c r="GM58" s="20"/>
-      <c r="GN58" s="21"/>
-      <c r="GO58" s="21"/>
+      <c r="GN58" s="20"/>
+      <c r="GO58" s="20"/>
+      <c r="GP58" s="21"/>
+      <c r="GQ58" s="21"/>
     </row>
-    <row r="59" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="59" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -13023,10 +13157,12 @@
       <c r="GK59" s="20"/>
       <c r="GL59" s="20"/>
       <c r="GM59" s="20"/>
-      <c r="GN59" s="21"/>
-      <c r="GO59" s="21"/>
+      <c r="GN59" s="20"/>
+      <c r="GO59" s="20"/>
+      <c r="GP59" s="21"/>
+      <c r="GQ59" s="21"/>
     </row>
-    <row r="60" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="60" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -13222,10 +13358,12 @@
       <c r="GK60" s="20"/>
       <c r="GL60" s="20"/>
       <c r="GM60" s="20"/>
-      <c r="GN60" s="21"/>
-      <c r="GO60" s="21"/>
+      <c r="GN60" s="20"/>
+      <c r="GO60" s="20"/>
+      <c r="GP60" s="21"/>
+      <c r="GQ60" s="21"/>
     </row>
-    <row r="61" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="61" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -13421,10 +13559,12 @@
       <c r="GK61" s="20"/>
       <c r="GL61" s="20"/>
       <c r="GM61" s="20"/>
-      <c r="GN61" s="21"/>
-      <c r="GO61" s="21"/>
+      <c r="GN61" s="20"/>
+      <c r="GO61" s="20"/>
+      <c r="GP61" s="21"/>
+      <c r="GQ61" s="21"/>
     </row>
-    <row r="62" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="62" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -13620,10 +13760,12 @@
       <c r="GK62" s="20"/>
       <c r="GL62" s="20"/>
       <c r="GM62" s="20"/>
-      <c r="GN62" s="21"/>
-      <c r="GO62" s="21"/>
+      <c r="GN62" s="20"/>
+      <c r="GO62" s="20"/>
+      <c r="GP62" s="21"/>
+      <c r="GQ62" s="21"/>
     </row>
-    <row r="63" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="63" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -13819,10 +13961,12 @@
       <c r="GK63" s="20"/>
       <c r="GL63" s="20"/>
       <c r="GM63" s="20"/>
-      <c r="GN63" s="21"/>
-      <c r="GO63" s="21"/>
+      <c r="GN63" s="20"/>
+      <c r="GO63" s="20"/>
+      <c r="GP63" s="21"/>
+      <c r="GQ63" s="21"/>
     </row>
-    <row r="64" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="64" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -14018,10 +14162,12 @@
       <c r="GK64" s="20"/>
       <c r="GL64" s="20"/>
       <c r="GM64" s="20"/>
-      <c r="GN64" s="21"/>
-      <c r="GO64" s="21"/>
+      <c r="GN64" s="20"/>
+      <c r="GO64" s="20"/>
+      <c r="GP64" s="21"/>
+      <c r="GQ64" s="21"/>
     </row>
-    <row r="65" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="65" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -14217,10 +14363,12 @@
       <c r="GK65" s="20"/>
       <c r="GL65" s="20"/>
       <c r="GM65" s="20"/>
-      <c r="GN65" s="21"/>
-      <c r="GO65" s="21"/>
+      <c r="GN65" s="20"/>
+      <c r="GO65" s="20"/>
+      <c r="GP65" s="21"/>
+      <c r="GQ65" s="21"/>
     </row>
-    <row r="66" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="66" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -14416,10 +14564,12 @@
       <c r="GK66" s="20"/>
       <c r="GL66" s="20"/>
       <c r="GM66" s="20"/>
-      <c r="GN66" s="21"/>
-      <c r="GO66" s="21"/>
+      <c r="GN66" s="20"/>
+      <c r="GO66" s="20"/>
+      <c r="GP66" s="21"/>
+      <c r="GQ66" s="21"/>
     </row>
-    <row r="67" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="67" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -14615,10 +14765,12 @@
       <c r="GK67" s="20"/>
       <c r="GL67" s="20"/>
       <c r="GM67" s="20"/>
-      <c r="GN67" s="21"/>
-      <c r="GO67" s="21"/>
+      <c r="GN67" s="20"/>
+      <c r="GO67" s="20"/>
+      <c r="GP67" s="21"/>
+      <c r="GQ67" s="21"/>
     </row>
-    <row r="68" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="68" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -14814,10 +14966,12 @@
       <c r="GK68" s="20"/>
       <c r="GL68" s="20"/>
       <c r="GM68" s="20"/>
-      <c r="GN68" s="21"/>
-      <c r="GO68" s="21"/>
+      <c r="GN68" s="20"/>
+      <c r="GO68" s="20"/>
+      <c r="GP68" s="21"/>
+      <c r="GQ68" s="21"/>
     </row>
-    <row r="69" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="69" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -15013,10 +15167,12 @@
       <c r="GK69" s="20"/>
       <c r="GL69" s="20"/>
       <c r="GM69" s="20"/>
-      <c r="GN69" s="21"/>
-      <c r="GO69" s="21"/>
+      <c r="GN69" s="20"/>
+      <c r="GO69" s="20"/>
+      <c r="GP69" s="21"/>
+      <c r="GQ69" s="21"/>
     </row>
-    <row r="70" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="70" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -15212,10 +15368,12 @@
       <c r="GK70" s="20"/>
       <c r="GL70" s="20"/>
       <c r="GM70" s="20"/>
-      <c r="GN70" s="21"/>
-      <c r="GO70" s="21"/>
+      <c r="GN70" s="20"/>
+      <c r="GO70" s="20"/>
+      <c r="GP70" s="21"/>
+      <c r="GQ70" s="21"/>
     </row>
-    <row r="71" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="71" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -15411,10 +15569,12 @@
       <c r="GK71" s="20"/>
       <c r="GL71" s="20"/>
       <c r="GM71" s="20"/>
-      <c r="GN71" s="21"/>
-      <c r="GO71" s="21"/>
+      <c r="GN71" s="20"/>
+      <c r="GO71" s="20"/>
+      <c r="GP71" s="21"/>
+      <c r="GQ71" s="21"/>
     </row>
-    <row r="72" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="72" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -15610,10 +15770,12 @@
       <c r="GK72" s="20"/>
       <c r="GL72" s="20"/>
       <c r="GM72" s="20"/>
-      <c r="GN72" s="21"/>
-      <c r="GO72" s="21"/>
+      <c r="GN72" s="20"/>
+      <c r="GO72" s="20"/>
+      <c r="GP72" s="21"/>
+      <c r="GQ72" s="21"/>
     </row>
-    <row r="73" spans="1:197" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="73" spans="1:199" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -15809,10 +15971,12 @@
       <c r="GK73" s="20"/>
       <c r="GL73" s="20"/>
       <c r="GM73" s="20"/>
-      <c r="GN73" s="21"/>
-      <c r="GO73" s="21"/>
+      <c r="GN73" s="20"/>
+      <c r="GO73" s="20"/>
+      <c r="GP73" s="21"/>
+      <c r="GQ73" s="21"/>
     </row>
-    <row r="74" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="74" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -16008,10 +16172,12 @@
       <c r="GK74" s="37"/>
       <c r="GL74" s="37"/>
       <c r="GM74" s="37"/>
-      <c r="GN74" s="36"/>
-      <c r="GO74" s="36"/>
+      <c r="GN74" s="37"/>
+      <c r="GO74" s="37"/>
+      <c r="GP74" s="36"/>
+      <c r="GQ74" s="36"/>
     </row>
-    <row r="75" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="75" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -16207,10 +16373,12 @@
       <c r="GK75" s="37"/>
       <c r="GL75" s="37"/>
       <c r="GM75" s="37"/>
-      <c r="GN75" s="36"/>
-      <c r="GO75" s="36"/>
+      <c r="GN75" s="37"/>
+      <c r="GO75" s="37"/>
+      <c r="GP75" s="36"/>
+      <c r="GQ75" s="36"/>
     </row>
-    <row r="76" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="76" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -16406,10 +16574,12 @@
       <c r="GK76" s="37"/>
       <c r="GL76" s="37"/>
       <c r="GM76" s="37"/>
-      <c r="GN76" s="36"/>
-      <c r="GO76" s="36"/>
+      <c r="GN76" s="37"/>
+      <c r="GO76" s="37"/>
+      <c r="GP76" s="36"/>
+      <c r="GQ76" s="36"/>
     </row>
-    <row r="77" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="77" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -16605,10 +16775,12 @@
       <c r="GK77" s="37"/>
       <c r="GL77" s="37"/>
       <c r="GM77" s="37"/>
-      <c r="GN77" s="36"/>
-      <c r="GO77" s="36"/>
+      <c r="GN77" s="37"/>
+      <c r="GO77" s="37"/>
+      <c r="GP77" s="36"/>
+      <c r="GQ77" s="36"/>
     </row>
-    <row r="78" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="78" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -16804,10 +16976,12 @@
       <c r="GK78" s="37"/>
       <c r="GL78" s="37"/>
       <c r="GM78" s="37"/>
-      <c r="GN78" s="36"/>
-      <c r="GO78" s="36"/>
+      <c r="GN78" s="37"/>
+      <c r="GO78" s="37"/>
+      <c r="GP78" s="36"/>
+      <c r="GQ78" s="36"/>
     </row>
-    <row r="79" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="79" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -17003,10 +17177,12 @@
       <c r="GK79" s="37"/>
       <c r="GL79" s="37"/>
       <c r="GM79" s="37"/>
-      <c r="GN79" s="36"/>
-      <c r="GO79" s="36"/>
+      <c r="GN79" s="37"/>
+      <c r="GO79" s="37"/>
+      <c r="GP79" s="36"/>
+      <c r="GQ79" s="36"/>
     </row>
-    <row r="80" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="80" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -17202,10 +17378,12 @@
       <c r="GK80" s="37"/>
       <c r="GL80" s="37"/>
       <c r="GM80" s="37"/>
-      <c r="GN80" s="36"/>
-      <c r="GO80" s="36"/>
+      <c r="GN80" s="37"/>
+      <c r="GO80" s="37"/>
+      <c r="GP80" s="36"/>
+      <c r="GQ80" s="36"/>
     </row>
-    <row r="81" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="81" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -17401,10 +17579,12 @@
       <c r="GK81" s="37"/>
       <c r="GL81" s="37"/>
       <c r="GM81" s="37"/>
-      <c r="GN81" s="36"/>
-      <c r="GO81" s="36"/>
+      <c r="GN81" s="37"/>
+      <c r="GO81" s="37"/>
+      <c r="GP81" s="36"/>
+      <c r="GQ81" s="36"/>
     </row>
-    <row r="82" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="82" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -17600,10 +17780,12 @@
       <c r="GK82" s="37"/>
       <c r="GL82" s="37"/>
       <c r="GM82" s="37"/>
-      <c r="GN82" s="36"/>
-      <c r="GO82" s="36"/>
+      <c r="GN82" s="37"/>
+      <c r="GO82" s="37"/>
+      <c r="GP82" s="36"/>
+      <c r="GQ82" s="36"/>
     </row>
-    <row r="83" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="83" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -17799,10 +17981,12 @@
       <c r="GK83" s="37"/>
       <c r="GL83" s="37"/>
       <c r="GM83" s="37"/>
-      <c r="GN83" s="36"/>
-      <c r="GO83" s="36"/>
+      <c r="GN83" s="37"/>
+      <c r="GO83" s="37"/>
+      <c r="GP83" s="36"/>
+      <c r="GQ83" s="36"/>
     </row>
-    <row r="84" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="84" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -17998,10 +18182,12 @@
       <c r="GK84" s="37"/>
       <c r="GL84" s="37"/>
       <c r="GM84" s="37"/>
-      <c r="GN84" s="36"/>
-      <c r="GO84" s="36"/>
+      <c r="GN84" s="37"/>
+      <c r="GO84" s="37"/>
+      <c r="GP84" s="36"/>
+      <c r="GQ84" s="36"/>
     </row>
-    <row r="85" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="85" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -18197,10 +18383,12 @@
       <c r="GK85" s="37"/>
       <c r="GL85" s="37"/>
       <c r="GM85" s="37"/>
-      <c r="GN85" s="36"/>
-      <c r="GO85" s="36"/>
+      <c r="GN85" s="37"/>
+      <c r="GO85" s="37"/>
+      <c r="GP85" s="36"/>
+      <c r="GQ85" s="36"/>
     </row>
-    <row r="86" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="86" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -18396,10 +18584,12 @@
       <c r="GK86" s="37"/>
       <c r="GL86" s="37"/>
       <c r="GM86" s="37"/>
-      <c r="GN86" s="36"/>
-      <c r="GO86" s="36"/>
+      <c r="GN86" s="37"/>
+      <c r="GO86" s="37"/>
+      <c r="GP86" s="36"/>
+      <c r="GQ86" s="36"/>
     </row>
-    <row r="87" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="87" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -18595,10 +18785,12 @@
       <c r="GK87" s="37"/>
       <c r="GL87" s="37"/>
       <c r="GM87" s="37"/>
-      <c r="GN87" s="36"/>
-      <c r="GO87" s="36"/>
+      <c r="GN87" s="37"/>
+      <c r="GO87" s="37"/>
+      <c r="GP87" s="36"/>
+      <c r="GQ87" s="36"/>
     </row>
-    <row r="88" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="88" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -18794,10 +18986,12 @@
       <c r="GK88" s="37"/>
       <c r="GL88" s="37"/>
       <c r="GM88" s="37"/>
-      <c r="GN88" s="36"/>
-      <c r="GO88" s="36"/>
+      <c r="GN88" s="37"/>
+      <c r="GO88" s="37"/>
+      <c r="GP88" s="36"/>
+      <c r="GQ88" s="36"/>
     </row>
-    <row r="89" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="89" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -18993,10 +19187,12 @@
       <c r="GK89" s="37"/>
       <c r="GL89" s="37"/>
       <c r="GM89" s="37"/>
-      <c r="GN89" s="36"/>
-      <c r="GO89" s="36"/>
+      <c r="GN89" s="37"/>
+      <c r="GO89" s="37"/>
+      <c r="GP89" s="36"/>
+      <c r="GQ89" s="36"/>
     </row>
-    <row r="90" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="90" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -19192,10 +19388,12 @@
       <c r="GK90" s="37"/>
       <c r="GL90" s="37"/>
       <c r="GM90" s="37"/>
-      <c r="GN90" s="36"/>
-      <c r="GO90" s="36"/>
+      <c r="GN90" s="37"/>
+      <c r="GO90" s="37"/>
+      <c r="GP90" s="36"/>
+      <c r="GQ90" s="36"/>
     </row>
-    <row r="91" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="91" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -19391,10 +19589,12 @@
       <c r="GK91" s="37"/>
       <c r="GL91" s="37"/>
       <c r="GM91" s="37"/>
-      <c r="GN91" s="36"/>
-      <c r="GO91" s="36"/>
+      <c r="GN91" s="37"/>
+      <c r="GO91" s="37"/>
+      <c r="GP91" s="36"/>
+      <c r="GQ91" s="36"/>
     </row>
-    <row r="92" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="92" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -19590,10 +19790,12 @@
       <c r="GK92" s="37"/>
       <c r="GL92" s="37"/>
       <c r="GM92" s="37"/>
-      <c r="GN92" s="36"/>
-      <c r="GO92" s="36"/>
+      <c r="GN92" s="37"/>
+      <c r="GO92" s="37"/>
+      <c r="GP92" s="36"/>
+      <c r="GQ92" s="36"/>
     </row>
-    <row r="93" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="93" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -19789,10 +19991,12 @@
       <c r="GK93" s="37"/>
       <c r="GL93" s="37"/>
       <c r="GM93" s="37"/>
-      <c r="GN93" s="36"/>
-      <c r="GO93" s="36"/>
+      <c r="GN93" s="37"/>
+      <c r="GO93" s="37"/>
+      <c r="GP93" s="36"/>
+      <c r="GQ93" s="36"/>
     </row>
-    <row r="94" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="94" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -19988,10 +20192,12 @@
       <c r="GK94" s="37"/>
       <c r="GL94" s="37"/>
       <c r="GM94" s="37"/>
-      <c r="GN94" s="36"/>
-      <c r="GO94" s="36"/>
+      <c r="GN94" s="37"/>
+      <c r="GO94" s="37"/>
+      <c r="GP94" s="36"/>
+      <c r="GQ94" s="36"/>
     </row>
-    <row r="95" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="95" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -20187,10 +20393,12 @@
       <c r="GK95" s="37"/>
       <c r="GL95" s="37"/>
       <c r="GM95" s="37"/>
-      <c r="GN95" s="36"/>
-      <c r="GO95" s="36"/>
+      <c r="GN95" s="37"/>
+      <c r="GO95" s="37"/>
+      <c r="GP95" s="36"/>
+      <c r="GQ95" s="36"/>
     </row>
-    <row r="96" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="96" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -20386,10 +20594,12 @@
       <c r="GK96" s="37"/>
       <c r="GL96" s="37"/>
       <c r="GM96" s="37"/>
-      <c r="GN96" s="36"/>
-      <c r="GO96" s="36"/>
+      <c r="GN96" s="37"/>
+      <c r="GO96" s="37"/>
+      <c r="GP96" s="36"/>
+      <c r="GQ96" s="36"/>
     </row>
-    <row r="97" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="97" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -20585,10 +20795,12 @@
       <c r="GK97" s="37"/>
       <c r="GL97" s="37"/>
       <c r="GM97" s="37"/>
-      <c r="GN97" s="36"/>
-      <c r="GO97" s="36"/>
+      <c r="GN97" s="37"/>
+      <c r="GO97" s="37"/>
+      <c r="GP97" s="36"/>
+      <c r="GQ97" s="36"/>
     </row>
-    <row r="98" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="98" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -20784,10 +20996,12 @@
       <c r="GK98" s="37"/>
       <c r="GL98" s="37"/>
       <c r="GM98" s="37"/>
-      <c r="GN98" s="36"/>
-      <c r="GO98" s="36"/>
+      <c r="GN98" s="37"/>
+      <c r="GO98" s="37"/>
+      <c r="GP98" s="36"/>
+      <c r="GQ98" s="36"/>
     </row>
-    <row r="99" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="99" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -20983,10 +21197,12 @@
       <c r="GK99" s="37"/>
       <c r="GL99" s="37"/>
       <c r="GM99" s="37"/>
-      <c r="GN99" s="36"/>
-      <c r="GO99" s="36"/>
+      <c r="GN99" s="37"/>
+      <c r="GO99" s="37"/>
+      <c r="GP99" s="36"/>
+      <c r="GQ99" s="36"/>
     </row>
-    <row r="100" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="100" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -21182,10 +21398,12 @@
       <c r="GK100" s="37"/>
       <c r="GL100" s="37"/>
       <c r="GM100" s="37"/>
-      <c r="GN100" s="36"/>
-      <c r="GO100" s="36"/>
+      <c r="GN100" s="37"/>
+      <c r="GO100" s="37"/>
+      <c r="GP100" s="36"/>
+      <c r="GQ100" s="36"/>
     </row>
-    <row r="101" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="101" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -21381,10 +21599,12 @@
       <c r="GK101" s="37"/>
       <c r="GL101" s="37"/>
       <c r="GM101" s="37"/>
-      <c r="GN101" s="36"/>
-      <c r="GO101" s="36"/>
+      <c r="GN101" s="37"/>
+      <c r="GO101" s="37"/>
+      <c r="GP101" s="36"/>
+      <c r="GQ101" s="36"/>
     </row>
-    <row r="102" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="102" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -21580,10 +21800,12 @@
       <c r="GK102" s="37"/>
       <c r="GL102" s="37"/>
       <c r="GM102" s="37"/>
-      <c r="GN102" s="36"/>
-      <c r="GO102" s="36"/>
+      <c r="GN102" s="37"/>
+      <c r="GO102" s="37"/>
+      <c r="GP102" s="36"/>
+      <c r="GQ102" s="36"/>
     </row>
-    <row r="103" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="103" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -21779,10 +22001,12 @@
       <c r="GK103" s="37"/>
       <c r="GL103" s="37"/>
       <c r="GM103" s="37"/>
-      <c r="GN103" s="36"/>
-      <c r="GO103" s="36"/>
+      <c r="GN103" s="37"/>
+      <c r="GO103" s="37"/>
+      <c r="GP103" s="36"/>
+      <c r="GQ103" s="36"/>
     </row>
-    <row r="104" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="104" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -21978,10 +22202,12 @@
       <c r="GK104" s="37"/>
       <c r="GL104" s="37"/>
       <c r="GM104" s="37"/>
-      <c r="GN104" s="36"/>
-      <c r="GO104" s="36"/>
+      <c r="GN104" s="37"/>
+      <c r="GO104" s="37"/>
+      <c r="GP104" s="36"/>
+      <c r="GQ104" s="36"/>
     </row>
-    <row r="105" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="105" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -22177,10 +22403,12 @@
       <c r="GK105" s="37"/>
       <c r="GL105" s="37"/>
       <c r="GM105" s="37"/>
-      <c r="GN105" s="36"/>
-      <c r="GO105" s="36"/>
+      <c r="GN105" s="37"/>
+      <c r="GO105" s="37"/>
+      <c r="GP105" s="36"/>
+      <c r="GQ105" s="36"/>
     </row>
-    <row r="106" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="106" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -22376,10 +22604,12 @@
       <c r="GK106" s="37"/>
       <c r="GL106" s="37"/>
       <c r="GM106" s="37"/>
-      <c r="GN106" s="36"/>
-      <c r="GO106" s="36"/>
+      <c r="GN106" s="37"/>
+      <c r="GO106" s="37"/>
+      <c r="GP106" s="36"/>
+      <c r="GQ106" s="36"/>
     </row>
-    <row r="107" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="107" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -22575,10 +22805,12 @@
       <c r="GK107" s="37"/>
       <c r="GL107" s="37"/>
       <c r="GM107" s="37"/>
-      <c r="GN107" s="36"/>
-      <c r="GO107" s="36"/>
+      <c r="GN107" s="37"/>
+      <c r="GO107" s="37"/>
+      <c r="GP107" s="36"/>
+      <c r="GQ107" s="36"/>
     </row>
-    <row r="108" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="108" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -22774,10 +23006,12 @@
       <c r="GK108" s="37"/>
       <c r="GL108" s="37"/>
       <c r="GM108" s="37"/>
-      <c r="GN108" s="36"/>
-      <c r="GO108" s="36"/>
+      <c r="GN108" s="37"/>
+      <c r="GO108" s="37"/>
+      <c r="GP108" s="36"/>
+      <c r="GQ108" s="36"/>
     </row>
-    <row r="109" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="109" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -22973,10 +23207,12 @@
       <c r="GK109" s="37"/>
       <c r="GL109" s="37"/>
       <c r="GM109" s="37"/>
-      <c r="GN109" s="36"/>
-      <c r="GO109" s="36"/>
+      <c r="GN109" s="37"/>
+      <c r="GO109" s="37"/>
+      <c r="GP109" s="36"/>
+      <c r="GQ109" s="36"/>
     </row>
-    <row r="110" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="110" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -23172,10 +23408,12 @@
       <c r="GK110" s="37"/>
       <c r="GL110" s="37"/>
       <c r="GM110" s="37"/>
-      <c r="GN110" s="36"/>
-      <c r="GO110" s="36"/>
+      <c r="GN110" s="37"/>
+      <c r="GO110" s="37"/>
+      <c r="GP110" s="36"/>
+      <c r="GQ110" s="36"/>
     </row>
-    <row r="111" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="111" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -23371,10 +23609,12 @@
       <c r="GK111" s="37"/>
       <c r="GL111" s="37"/>
       <c r="GM111" s="37"/>
-      <c r="GN111" s="36"/>
-      <c r="GO111" s="36"/>
+      <c r="GN111" s="37"/>
+      <c r="GO111" s="37"/>
+      <c r="GP111" s="36"/>
+      <c r="GQ111" s="36"/>
     </row>
-    <row r="112" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="112" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -23570,10 +23810,12 @@
       <c r="GK112" s="37"/>
       <c r="GL112" s="37"/>
       <c r="GM112" s="37"/>
-      <c r="GN112" s="36"/>
-      <c r="GO112" s="36"/>
+      <c r="GN112" s="37"/>
+      <c r="GO112" s="37"/>
+      <c r="GP112" s="36"/>
+      <c r="GQ112" s="36"/>
     </row>
-    <row r="113" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="113" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -23769,10 +24011,12 @@
       <c r="GK113" s="37"/>
       <c r="GL113" s="37"/>
       <c r="GM113" s="37"/>
-      <c r="GN113" s="36"/>
-      <c r="GO113" s="36"/>
+      <c r="GN113" s="37"/>
+      <c r="GO113" s="37"/>
+      <c r="GP113" s="36"/>
+      <c r="GQ113" s="36"/>
     </row>
-    <row r="114" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="114" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -23968,10 +24212,12 @@
       <c r="GK114" s="37"/>
       <c r="GL114" s="37"/>
       <c r="GM114" s="37"/>
-      <c r="GN114" s="36"/>
-      <c r="GO114" s="36"/>
+      <c r="GN114" s="37"/>
+      <c r="GO114" s="37"/>
+      <c r="GP114" s="36"/>
+      <c r="GQ114" s="36"/>
     </row>
-    <row r="115" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="115" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -24167,10 +24413,12 @@
       <c r="GK115" s="37"/>
       <c r="GL115" s="37"/>
       <c r="GM115" s="37"/>
-      <c r="GN115" s="36"/>
-      <c r="GO115" s="36"/>
+      <c r="GN115" s="37"/>
+      <c r="GO115" s="37"/>
+      <c r="GP115" s="36"/>
+      <c r="GQ115" s="36"/>
     </row>
-    <row r="116" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="116" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -24366,10 +24614,12 @@
       <c r="GK116" s="37"/>
       <c r="GL116" s="37"/>
       <c r="GM116" s="37"/>
-      <c r="GN116" s="36"/>
-      <c r="GO116" s="36"/>
+      <c r="GN116" s="37"/>
+      <c r="GO116" s="37"/>
+      <c r="GP116" s="36"/>
+      <c r="GQ116" s="36"/>
     </row>
-    <row r="117" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="117" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -24565,10 +24815,12 @@
       <c r="GK117" s="37"/>
       <c r="GL117" s="37"/>
       <c r="GM117" s="37"/>
-      <c r="GN117" s="36"/>
-      <c r="GO117" s="36"/>
+      <c r="GN117" s="37"/>
+      <c r="GO117" s="37"/>
+      <c r="GP117" s="36"/>
+      <c r="GQ117" s="36"/>
     </row>
-    <row r="118" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="118" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -24764,10 +25016,12 @@
       <c r="GK118" s="37"/>
       <c r="GL118" s="37"/>
       <c r="GM118" s="37"/>
-      <c r="GN118" s="36"/>
-      <c r="GO118" s="36"/>
+      <c r="GN118" s="37"/>
+      <c r="GO118" s="37"/>
+      <c r="GP118" s="36"/>
+      <c r="GQ118" s="36"/>
     </row>
-    <row r="119" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="119" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -24963,10 +25217,12 @@
       <c r="GK119" s="37"/>
       <c r="GL119" s="37"/>
       <c r="GM119" s="37"/>
-      <c r="GN119" s="36"/>
-      <c r="GO119" s="36"/>
+      <c r="GN119" s="37"/>
+      <c r="GO119" s="37"/>
+      <c r="GP119" s="36"/>
+      <c r="GQ119" s="36"/>
     </row>
-    <row r="120" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="120" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -25162,10 +25418,12 @@
       <c r="GK120" s="37"/>
       <c r="GL120" s="37"/>
       <c r="GM120" s="37"/>
-      <c r="GN120" s="36"/>
-      <c r="GO120" s="36"/>
+      <c r="GN120" s="37"/>
+      <c r="GO120" s="37"/>
+      <c r="GP120" s="36"/>
+      <c r="GQ120" s="36"/>
     </row>
-    <row r="121" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="121" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -25361,10 +25619,12 @@
       <c r="GK121" s="37"/>
       <c r="GL121" s="37"/>
       <c r="GM121" s="37"/>
-      <c r="GN121" s="36"/>
-      <c r="GO121" s="36"/>
+      <c r="GN121" s="37"/>
+      <c r="GO121" s="37"/>
+      <c r="GP121" s="36"/>
+      <c r="GQ121" s="36"/>
     </row>
-    <row r="122" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="122" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -25560,10 +25820,12 @@
       <c r="GK122" s="37"/>
       <c r="GL122" s="37"/>
       <c r="GM122" s="37"/>
-      <c r="GN122" s="36"/>
-      <c r="GO122" s="36"/>
+      <c r="GN122" s="37"/>
+      <c r="GO122" s="37"/>
+      <c r="GP122" s="36"/>
+      <c r="GQ122" s="36"/>
     </row>
-    <row r="123" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="123" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -25759,10 +26021,12 @@
       <c r="GK123" s="37"/>
       <c r="GL123" s="37"/>
       <c r="GM123" s="37"/>
-      <c r="GN123" s="36"/>
-      <c r="GO123" s="36"/>
+      <c r="GN123" s="37"/>
+      <c r="GO123" s="37"/>
+      <c r="GP123" s="36"/>
+      <c r="GQ123" s="36"/>
     </row>
-    <row r="124" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="124" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -25958,10 +26222,12 @@
       <c r="GK124" s="37"/>
       <c r="GL124" s="37"/>
       <c r="GM124" s="37"/>
-      <c r="GN124" s="36"/>
-      <c r="GO124" s="36"/>
+      <c r="GN124" s="37"/>
+      <c r="GO124" s="37"/>
+      <c r="GP124" s="36"/>
+      <c r="GQ124" s="36"/>
     </row>
-    <row r="125" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="125" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -26157,10 +26423,12 @@
       <c r="GK125" s="37"/>
       <c r="GL125" s="37"/>
       <c r="GM125" s="37"/>
-      <c r="GN125" s="36"/>
-      <c r="GO125" s="36"/>
+      <c r="GN125" s="37"/>
+      <c r="GO125" s="37"/>
+      <c r="GP125" s="36"/>
+      <c r="GQ125" s="36"/>
     </row>
-    <row r="126" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="126" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -26356,10 +26624,12 @@
       <c r="GK126" s="37"/>
       <c r="GL126" s="37"/>
       <c r="GM126" s="37"/>
-      <c r="GN126" s="36"/>
-      <c r="GO126" s="36"/>
+      <c r="GN126" s="37"/>
+      <c r="GO126" s="37"/>
+      <c r="GP126" s="36"/>
+      <c r="GQ126" s="36"/>
     </row>
-    <row r="127" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="127" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -26555,10 +26825,12 @@
       <c r="GK127" s="37"/>
       <c r="GL127" s="37"/>
       <c r="GM127" s="37"/>
-      <c r="GN127" s="36"/>
-      <c r="GO127" s="36"/>
+      <c r="GN127" s="37"/>
+      <c r="GO127" s="37"/>
+      <c r="GP127" s="36"/>
+      <c r="GQ127" s="36"/>
     </row>
-    <row r="128" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="128" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -26754,10 +27026,12 @@
       <c r="GK128" s="37"/>
       <c r="GL128" s="37"/>
       <c r="GM128" s="37"/>
-      <c r="GN128" s="36"/>
-      <c r="GO128" s="36"/>
+      <c r="GN128" s="37"/>
+      <c r="GO128" s="37"/>
+      <c r="GP128" s="36"/>
+      <c r="GQ128" s="36"/>
     </row>
-    <row r="129" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="129" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -26953,10 +27227,12 @@
       <c r="GK129" s="37"/>
       <c r="GL129" s="37"/>
       <c r="GM129" s="37"/>
-      <c r="GN129" s="36"/>
-      <c r="GO129" s="36"/>
+      <c r="GN129" s="37"/>
+      <c r="GO129" s="37"/>
+      <c r="GP129" s="36"/>
+      <c r="GQ129" s="36"/>
     </row>
-    <row r="130" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="130" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -27152,10 +27428,12 @@
       <c r="GK130" s="37"/>
       <c r="GL130" s="37"/>
       <c r="GM130" s="37"/>
-      <c r="GN130" s="36"/>
-      <c r="GO130" s="36"/>
+      <c r="GN130" s="37"/>
+      <c r="GO130" s="37"/>
+      <c r="GP130" s="36"/>
+      <c r="GQ130" s="36"/>
     </row>
-    <row r="131" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="131" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -27351,10 +27629,12 @@
       <c r="GK131" s="37"/>
       <c r="GL131" s="37"/>
       <c r="GM131" s="37"/>
-      <c r="GN131" s="36"/>
-      <c r="GO131" s="36"/>
+      <c r="GN131" s="37"/>
+      <c r="GO131" s="37"/>
+      <c r="GP131" s="36"/>
+      <c r="GQ131" s="36"/>
     </row>
-    <row r="132" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="132" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -27550,10 +27830,12 @@
       <c r="GK132" s="37"/>
       <c r="GL132" s="37"/>
       <c r="GM132" s="37"/>
-      <c r="GN132" s="36"/>
-      <c r="GO132" s="36"/>
+      <c r="GN132" s="37"/>
+      <c r="GO132" s="37"/>
+      <c r="GP132" s="36"/>
+      <c r="GQ132" s="36"/>
     </row>
-    <row r="133" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="133" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -27749,10 +28031,12 @@
       <c r="GK133" s="37"/>
       <c r="GL133" s="37"/>
       <c r="GM133" s="37"/>
-      <c r="GN133" s="36"/>
-      <c r="GO133" s="36"/>
+      <c r="GN133" s="37"/>
+      <c r="GO133" s="37"/>
+      <c r="GP133" s="36"/>
+      <c r="GQ133" s="36"/>
     </row>
-    <row r="134" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="134" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -27948,10 +28232,12 @@
       <c r="GK134" s="37"/>
       <c r="GL134" s="37"/>
       <c r="GM134" s="37"/>
-      <c r="GN134" s="36"/>
-      <c r="GO134" s="36"/>
+      <c r="GN134" s="37"/>
+      <c r="GO134" s="37"/>
+      <c r="GP134" s="36"/>
+      <c r="GQ134" s="36"/>
     </row>
-    <row r="135" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="135" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -28147,10 +28433,12 @@
       <c r="GK135" s="37"/>
       <c r="GL135" s="37"/>
       <c r="GM135" s="37"/>
-      <c r="GN135" s="36"/>
-      <c r="GO135" s="36"/>
+      <c r="GN135" s="37"/>
+      <c r="GO135" s="37"/>
+      <c r="GP135" s="36"/>
+      <c r="GQ135" s="36"/>
     </row>
-    <row r="136" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="136" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -28346,10 +28634,12 @@
       <c r="GK136" s="37"/>
       <c r="GL136" s="37"/>
       <c r="GM136" s="37"/>
-      <c r="GN136" s="36"/>
-      <c r="GO136" s="36"/>
+      <c r="GN136" s="37"/>
+      <c r="GO136" s="37"/>
+      <c r="GP136" s="36"/>
+      <c r="GQ136" s="36"/>
     </row>
-    <row r="137" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="137" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -28545,10 +28835,12 @@
       <c r="GK137" s="37"/>
       <c r="GL137" s="37"/>
       <c r="GM137" s="37"/>
-      <c r="GN137" s="36"/>
-      <c r="GO137" s="36"/>
+      <c r="GN137" s="37"/>
+      <c r="GO137" s="37"/>
+      <c r="GP137" s="36"/>
+      <c r="GQ137" s="36"/>
     </row>
-    <row r="138" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="138" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -28744,10 +29036,12 @@
       <c r="GK138" s="37"/>
       <c r="GL138" s="37"/>
       <c r="GM138" s="37"/>
-      <c r="GN138" s="36"/>
-      <c r="GO138" s="36"/>
+      <c r="GN138" s="37"/>
+      <c r="GO138" s="37"/>
+      <c r="GP138" s="36"/>
+      <c r="GQ138" s="36"/>
     </row>
-    <row r="139" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="139" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -28943,10 +29237,12 @@
       <c r="GK139" s="37"/>
       <c r="GL139" s="37"/>
       <c r="GM139" s="37"/>
-      <c r="GN139" s="36"/>
-      <c r="GO139" s="36"/>
+      <c r="GN139" s="37"/>
+      <c r="GO139" s="37"/>
+      <c r="GP139" s="36"/>
+      <c r="GQ139" s="36"/>
     </row>
-    <row r="140" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="140" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -29142,10 +29438,12 @@
       <c r="GK140" s="37"/>
       <c r="GL140" s="37"/>
       <c r="GM140" s="37"/>
-      <c r="GN140" s="36"/>
-      <c r="GO140" s="36"/>
+      <c r="GN140" s="37"/>
+      <c r="GO140" s="37"/>
+      <c r="GP140" s="36"/>
+      <c r="GQ140" s="36"/>
     </row>
-    <row r="141" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="141" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -29341,10 +29639,12 @@
       <c r="GK141" s="37"/>
       <c r="GL141" s="37"/>
       <c r="GM141" s="37"/>
-      <c r="GN141" s="36"/>
-      <c r="GO141" s="36"/>
+      <c r="GN141" s="37"/>
+      <c r="GO141" s="37"/>
+      <c r="GP141" s="36"/>
+      <c r="GQ141" s="36"/>
     </row>
-    <row r="142" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="142" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -29540,10 +29840,12 @@
       <c r="GK142" s="37"/>
       <c r="GL142" s="37"/>
       <c r="GM142" s="37"/>
-      <c r="GN142" s="36"/>
-      <c r="GO142" s="36"/>
+      <c r="GN142" s="37"/>
+      <c r="GO142" s="37"/>
+      <c r="GP142" s="36"/>
+      <c r="GQ142" s="36"/>
     </row>
-    <row r="143" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="143" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -29739,10 +30041,12 @@
       <c r="GK143" s="37"/>
       <c r="GL143" s="37"/>
       <c r="GM143" s="37"/>
-      <c r="GN143" s="36"/>
-      <c r="GO143" s="36"/>
+      <c r="GN143" s="37"/>
+      <c r="GO143" s="37"/>
+      <c r="GP143" s="36"/>
+      <c r="GQ143" s="36"/>
     </row>
-    <row r="144" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="144" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -29938,10 +30242,12 @@
       <c r="GK144" s="37"/>
       <c r="GL144" s="37"/>
       <c r="GM144" s="37"/>
-      <c r="GN144" s="36"/>
-      <c r="GO144" s="36"/>
+      <c r="GN144" s="37"/>
+      <c r="GO144" s="37"/>
+      <c r="GP144" s="36"/>
+      <c r="GQ144" s="36"/>
     </row>
-    <row r="145" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="145" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -30137,10 +30443,12 @@
       <c r="GK145" s="37"/>
       <c r="GL145" s="37"/>
       <c r="GM145" s="37"/>
-      <c r="GN145" s="36"/>
-      <c r="GO145" s="36"/>
+      <c r="GN145" s="37"/>
+      <c r="GO145" s="37"/>
+      <c r="GP145" s="36"/>
+      <c r="GQ145" s="36"/>
     </row>
-    <row r="146" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="146" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -30336,10 +30644,12 @@
       <c r="GK146" s="37"/>
       <c r="GL146" s="37"/>
       <c r="GM146" s="37"/>
-      <c r="GN146" s="36"/>
-      <c r="GO146" s="36"/>
+      <c r="GN146" s="37"/>
+      <c r="GO146" s="37"/>
+      <c r="GP146" s="36"/>
+      <c r="GQ146" s="36"/>
     </row>
-    <row r="147" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="147" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -30535,10 +30845,12 @@
       <c r="GK147" s="37"/>
       <c r="GL147" s="37"/>
       <c r="GM147" s="37"/>
-      <c r="GN147" s="36"/>
-      <c r="GO147" s="36"/>
+      <c r="GN147" s="37"/>
+      <c r="GO147" s="37"/>
+      <c r="GP147" s="36"/>
+      <c r="GQ147" s="36"/>
     </row>
-    <row r="148" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="148" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -30734,10 +31046,12 @@
       <c r="GK148" s="37"/>
       <c r="GL148" s="37"/>
       <c r="GM148" s="37"/>
-      <c r="GN148" s="36"/>
-      <c r="GO148" s="36"/>
+      <c r="GN148" s="37"/>
+      <c r="GO148" s="37"/>
+      <c r="GP148" s="36"/>
+      <c r="GQ148" s="36"/>
     </row>
-    <row r="149" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="149" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -30933,10 +31247,12 @@
       <c r="GK149" s="37"/>
       <c r="GL149" s="37"/>
       <c r="GM149" s="37"/>
-      <c r="GN149" s="36"/>
-      <c r="GO149" s="36"/>
+      <c r="GN149" s="37"/>
+      <c r="GO149" s="37"/>
+      <c r="GP149" s="36"/>
+      <c r="GQ149" s="36"/>
     </row>
-    <row r="150" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="150" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -31132,10 +31448,12 @@
       <c r="GK150" s="37"/>
       <c r="GL150" s="37"/>
       <c r="GM150" s="37"/>
-      <c r="GN150" s="36"/>
-      <c r="GO150" s="36"/>
+      <c r="GN150" s="37"/>
+      <c r="GO150" s="37"/>
+      <c r="GP150" s="36"/>
+      <c r="GQ150" s="36"/>
     </row>
-    <row r="151" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="151" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -31331,10 +31649,12 @@
       <c r="GK151" s="37"/>
       <c r="GL151" s="37"/>
       <c r="GM151" s="37"/>
-      <c r="GN151" s="36"/>
-      <c r="GO151" s="36"/>
+      <c r="GN151" s="37"/>
+      <c r="GO151" s="37"/>
+      <c r="GP151" s="36"/>
+      <c r="GQ151" s="36"/>
     </row>
-    <row r="152" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="152" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -31530,10 +31850,12 @@
       <c r="GK152" s="37"/>
       <c r="GL152" s="37"/>
       <c r="GM152" s="37"/>
-      <c r="GN152" s="36"/>
-      <c r="GO152" s="36"/>
+      <c r="GN152" s="37"/>
+      <c r="GO152" s="37"/>
+      <c r="GP152" s="36"/>
+      <c r="GQ152" s="36"/>
     </row>
-    <row r="153" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="153" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -31729,10 +32051,12 @@
       <c r="GK153" s="37"/>
       <c r="GL153" s="37"/>
       <c r="GM153" s="37"/>
-      <c r="GN153" s="36"/>
-      <c r="GO153" s="36"/>
+      <c r="GN153" s="37"/>
+      <c r="GO153" s="37"/>
+      <c r="GP153" s="36"/>
+      <c r="GQ153" s="36"/>
     </row>
-    <row r="154" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="154" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -31928,10 +32252,12 @@
       <c r="GK154" s="37"/>
       <c r="GL154" s="37"/>
       <c r="GM154" s="37"/>
-      <c r="GN154" s="36"/>
-      <c r="GO154" s="36"/>
+      <c r="GN154" s="37"/>
+      <c r="GO154" s="37"/>
+      <c r="GP154" s="36"/>
+      <c r="GQ154" s="36"/>
     </row>
-    <row r="155" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="155" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -32127,10 +32453,12 @@
       <c r="GK155" s="37"/>
       <c r="GL155" s="37"/>
       <c r="GM155" s="37"/>
-      <c r="GN155" s="36"/>
-      <c r="GO155" s="36"/>
+      <c r="GN155" s="37"/>
+      <c r="GO155" s="37"/>
+      <c r="GP155" s="36"/>
+      <c r="GQ155" s="36"/>
     </row>
-    <row r="156" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="156" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -32326,10 +32654,12 @@
       <c r="GK156" s="37"/>
       <c r="GL156" s="37"/>
       <c r="GM156" s="37"/>
-      <c r="GN156" s="36"/>
-      <c r="GO156" s="36"/>
+      <c r="GN156" s="37"/>
+      <c r="GO156" s="37"/>
+      <c r="GP156" s="36"/>
+      <c r="GQ156" s="36"/>
     </row>
-    <row r="157" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="157" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -32525,10 +32855,12 @@
       <c r="GK157" s="37"/>
       <c r="GL157" s="37"/>
       <c r="GM157" s="37"/>
-      <c r="GN157" s="36"/>
-      <c r="GO157" s="36"/>
+      <c r="GN157" s="37"/>
+      <c r="GO157" s="37"/>
+      <c r="GP157" s="36"/>
+      <c r="GQ157" s="36"/>
     </row>
-    <row r="158" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="158" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -32724,10 +33056,12 @@
       <c r="GK158" s="37"/>
       <c r="GL158" s="37"/>
       <c r="GM158" s="37"/>
-      <c r="GN158" s="36"/>
-      <c r="GO158" s="36"/>
+      <c r="GN158" s="37"/>
+      <c r="GO158" s="37"/>
+      <c r="GP158" s="36"/>
+      <c r="GQ158" s="36"/>
     </row>
-    <row r="159" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="159" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -32923,10 +33257,12 @@
       <c r="GK159" s="37"/>
       <c r="GL159" s="37"/>
       <c r="GM159" s="37"/>
-      <c r="GN159" s="36"/>
-      <c r="GO159" s="36"/>
+      <c r="GN159" s="37"/>
+      <c r="GO159" s="37"/>
+      <c r="GP159" s="36"/>
+      <c r="GQ159" s="36"/>
     </row>
-    <row r="160" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="160" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -33122,10 +33458,12 @@
       <c r="GK160" s="37"/>
       <c r="GL160" s="37"/>
       <c r="GM160" s="37"/>
-      <c r="GN160" s="36"/>
-      <c r="GO160" s="36"/>
+      <c r="GN160" s="37"/>
+      <c r="GO160" s="37"/>
+      <c r="GP160" s="36"/>
+      <c r="GQ160" s="36"/>
     </row>
-    <row r="161" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="161" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -33321,10 +33659,12 @@
       <c r="GK161" s="37"/>
       <c r="GL161" s="37"/>
       <c r="GM161" s="37"/>
-      <c r="GN161" s="36"/>
-      <c r="GO161" s="36"/>
+      <c r="GN161" s="37"/>
+      <c r="GO161" s="37"/>
+      <c r="GP161" s="36"/>
+      <c r="GQ161" s="36"/>
     </row>
-    <row r="162" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="162" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -33520,10 +33860,12 @@
       <c r="GK162" s="37"/>
       <c r="GL162" s="37"/>
       <c r="GM162" s="37"/>
-      <c r="GN162" s="36"/>
-      <c r="GO162" s="36"/>
+      <c r="GN162" s="37"/>
+      <c r="GO162" s="37"/>
+      <c r="GP162" s="36"/>
+      <c r="GQ162" s="36"/>
     </row>
-    <row r="163" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="163" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -33719,10 +34061,12 @@
       <c r="GK163" s="37"/>
       <c r="GL163" s="37"/>
       <c r="GM163" s="37"/>
-      <c r="GN163" s="36"/>
-      <c r="GO163" s="36"/>
+      <c r="GN163" s="37"/>
+      <c r="GO163" s="37"/>
+      <c r="GP163" s="36"/>
+      <c r="GQ163" s="36"/>
     </row>
-    <row r="164" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="164" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -33918,10 +34262,12 @@
       <c r="GK164" s="37"/>
       <c r="GL164" s="37"/>
       <c r="GM164" s="37"/>
-      <c r="GN164" s="36"/>
-      <c r="GO164" s="36"/>
+      <c r="GN164" s="37"/>
+      <c r="GO164" s="37"/>
+      <c r="GP164" s="36"/>
+      <c r="GQ164" s="36"/>
     </row>
-    <row r="165" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="165" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -34117,10 +34463,12 @@
       <c r="GK165" s="37"/>
       <c r="GL165" s="37"/>
       <c r="GM165" s="37"/>
-      <c r="GN165" s="36"/>
-      <c r="GO165" s="36"/>
+      <c r="GN165" s="37"/>
+      <c r="GO165" s="37"/>
+      <c r="GP165" s="36"/>
+      <c r="GQ165" s="36"/>
     </row>
-    <row r="166" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="166" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -34316,10 +34664,12 @@
       <c r="GK166" s="37"/>
       <c r="GL166" s="37"/>
       <c r="GM166" s="37"/>
-      <c r="GN166" s="36"/>
-      <c r="GO166" s="36"/>
+      <c r="GN166" s="37"/>
+      <c r="GO166" s="37"/>
+      <c r="GP166" s="36"/>
+      <c r="GQ166" s="36"/>
     </row>
-    <row r="167" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="167" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -34515,10 +34865,12 @@
       <c r="GK167" s="37"/>
       <c r="GL167" s="37"/>
       <c r="GM167" s="37"/>
-      <c r="GN167" s="36"/>
-      <c r="GO167" s="36"/>
+      <c r="GN167" s="37"/>
+      <c r="GO167" s="37"/>
+      <c r="GP167" s="36"/>
+      <c r="GQ167" s="36"/>
     </row>
-    <row r="168" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="168" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -34714,10 +35066,12 @@
       <c r="GK168" s="37"/>
       <c r="GL168" s="37"/>
       <c r="GM168" s="37"/>
-      <c r="GN168" s="36"/>
-      <c r="GO168" s="36"/>
+      <c r="GN168" s="37"/>
+      <c r="GO168" s="37"/>
+      <c r="GP168" s="36"/>
+      <c r="GQ168" s="36"/>
     </row>
-    <row r="169" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="169" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -34913,10 +35267,12 @@
       <c r="GK169" s="37"/>
       <c r="GL169" s="37"/>
       <c r="GM169" s="37"/>
-      <c r="GN169" s="36"/>
-      <c r="GO169" s="36"/>
+      <c r="GN169" s="37"/>
+      <c r="GO169" s="37"/>
+      <c r="GP169" s="36"/>
+      <c r="GQ169" s="36"/>
     </row>
-    <row r="170" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="170" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -35112,10 +35468,12 @@
       <c r="GK170" s="37"/>
       <c r="GL170" s="37"/>
       <c r="GM170" s="37"/>
-      <c r="GN170" s="36"/>
-      <c r="GO170" s="36"/>
+      <c r="GN170" s="37"/>
+      <c r="GO170" s="37"/>
+      <c r="GP170" s="36"/>
+      <c r="GQ170" s="36"/>
     </row>
-    <row r="171" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="171" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -35311,10 +35669,12 @@
       <c r="GK171" s="37"/>
       <c r="GL171" s="37"/>
       <c r="GM171" s="37"/>
-      <c r="GN171" s="36"/>
-      <c r="GO171" s="36"/>
+      <c r="GN171" s="37"/>
+      <c r="GO171" s="37"/>
+      <c r="GP171" s="36"/>
+      <c r="GQ171" s="36"/>
     </row>
-    <row r="172" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="172" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -35510,10 +35870,12 @@
       <c r="GK172" s="37"/>
       <c r="GL172" s="37"/>
       <c r="GM172" s="37"/>
-      <c r="GN172" s="36"/>
-      <c r="GO172" s="36"/>
+      <c r="GN172" s="37"/>
+      <c r="GO172" s="37"/>
+      <c r="GP172" s="36"/>
+      <c r="GQ172" s="36"/>
     </row>
-    <row r="173" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="173" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -35709,10 +36071,12 @@
       <c r="GK173" s="37"/>
       <c r="GL173" s="37"/>
       <c r="GM173" s="37"/>
-      <c r="GN173" s="36"/>
-      <c r="GO173" s="36"/>
+      <c r="GN173" s="37"/>
+      <c r="GO173" s="37"/>
+      <c r="GP173" s="36"/>
+      <c r="GQ173" s="36"/>
     </row>
-    <row r="174" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="174" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -35908,10 +36272,12 @@
       <c r="GK174" s="37"/>
       <c r="GL174" s="37"/>
       <c r="GM174" s="37"/>
-      <c r="GN174" s="36"/>
-      <c r="GO174" s="36"/>
+      <c r="GN174" s="37"/>
+      <c r="GO174" s="37"/>
+      <c r="GP174" s="36"/>
+      <c r="GQ174" s="36"/>
     </row>
-    <row r="175" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="175" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -36107,10 +36473,12 @@
       <c r="GK175" s="37"/>
       <c r="GL175" s="37"/>
       <c r="GM175" s="37"/>
-      <c r="GN175" s="36"/>
-      <c r="GO175" s="36"/>
+      <c r="GN175" s="37"/>
+      <c r="GO175" s="37"/>
+      <c r="GP175" s="36"/>
+      <c r="GQ175" s="36"/>
     </row>
-    <row r="176" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="176" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -36306,10 +36674,12 @@
       <c r="GK176" s="37"/>
       <c r="GL176" s="37"/>
       <c r="GM176" s="37"/>
-      <c r="GN176" s="36"/>
-      <c r="GO176" s="36"/>
+      <c r="GN176" s="37"/>
+      <c r="GO176" s="37"/>
+      <c r="GP176" s="36"/>
+      <c r="GQ176" s="36"/>
     </row>
-    <row r="177" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="177" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -36505,10 +36875,12 @@
       <c r="GK177" s="37"/>
       <c r="GL177" s="37"/>
       <c r="GM177" s="37"/>
-      <c r="GN177" s="36"/>
-      <c r="GO177" s="36"/>
+      <c r="GN177" s="37"/>
+      <c r="GO177" s="37"/>
+      <c r="GP177" s="36"/>
+      <c r="GQ177" s="36"/>
     </row>
-    <row r="178" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="178" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -36704,10 +37076,12 @@
       <c r="GK178" s="37"/>
       <c r="GL178" s="37"/>
       <c r="GM178" s="37"/>
-      <c r="GN178" s="36"/>
-      <c r="GO178" s="36"/>
+      <c r="GN178" s="37"/>
+      <c r="GO178" s="37"/>
+      <c r="GP178" s="36"/>
+      <c r="GQ178" s="36"/>
     </row>
-    <row r="179" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="179" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -36903,10 +37277,12 @@
       <c r="GK179" s="37"/>
       <c r="GL179" s="37"/>
       <c r="GM179" s="37"/>
-      <c r="GN179" s="36"/>
-      <c r="GO179" s="36"/>
+      <c r="GN179" s="37"/>
+      <c r="GO179" s="37"/>
+      <c r="GP179" s="36"/>
+      <c r="GQ179" s="36"/>
     </row>
-    <row r="180" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="180" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -37102,10 +37478,12 @@
       <c r="GK180" s="37"/>
       <c r="GL180" s="37"/>
       <c r="GM180" s="37"/>
-      <c r="GN180" s="36"/>
-      <c r="GO180" s="36"/>
+      <c r="GN180" s="37"/>
+      <c r="GO180" s="37"/>
+      <c r="GP180" s="36"/>
+      <c r="GQ180" s="36"/>
     </row>
-    <row r="181" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="181" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -37301,10 +37679,12 @@
       <c r="GK181" s="37"/>
       <c r="GL181" s="37"/>
       <c r="GM181" s="37"/>
-      <c r="GN181" s="36"/>
-      <c r="GO181" s="36"/>
+      <c r="GN181" s="37"/>
+      <c r="GO181" s="37"/>
+      <c r="GP181" s="36"/>
+      <c r="GQ181" s="36"/>
     </row>
-    <row r="182" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="182" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -37500,10 +37880,12 @@
       <c r="GK182" s="37"/>
       <c r="GL182" s="37"/>
       <c r="GM182" s="37"/>
-      <c r="GN182" s="36"/>
-      <c r="GO182" s="36"/>
+      <c r="GN182" s="37"/>
+      <c r="GO182" s="37"/>
+      <c r="GP182" s="36"/>
+      <c r="GQ182" s="36"/>
     </row>
-    <row r="183" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="183" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -37699,10 +38081,12 @@
       <c r="GK183" s="37"/>
       <c r="GL183" s="37"/>
       <c r="GM183" s="37"/>
-      <c r="GN183" s="36"/>
-      <c r="GO183" s="36"/>
+      <c r="GN183" s="37"/>
+      <c r="GO183" s="37"/>
+      <c r="GP183" s="36"/>
+      <c r="GQ183" s="36"/>
     </row>
-    <row r="184" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="184" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -37898,10 +38282,12 @@
       <c r="GK184" s="37"/>
       <c r="GL184" s="37"/>
       <c r="GM184" s="37"/>
-      <c r="GN184" s="36"/>
-      <c r="GO184" s="36"/>
+      <c r="GN184" s="37"/>
+      <c r="GO184" s="37"/>
+      <c r="GP184" s="36"/>
+      <c r="GQ184" s="36"/>
     </row>
-    <row r="185" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="185" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -38097,10 +38483,12 @@
       <c r="GK185" s="37"/>
       <c r="GL185" s="37"/>
       <c r="GM185" s="37"/>
-      <c r="GN185" s="36"/>
-      <c r="GO185" s="36"/>
+      <c r="GN185" s="37"/>
+      <c r="GO185" s="37"/>
+      <c r="GP185" s="36"/>
+      <c r="GQ185" s="36"/>
     </row>
-    <row r="186" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="186" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -38296,10 +38684,12 @@
       <c r="GK186" s="37"/>
       <c r="GL186" s="37"/>
       <c r="GM186" s="37"/>
-      <c r="GN186" s="36"/>
-      <c r="GO186" s="36"/>
+      <c r="GN186" s="37"/>
+      <c r="GO186" s="37"/>
+      <c r="GP186" s="36"/>
+      <c r="GQ186" s="36"/>
     </row>
-    <row r="187" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="187" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -38495,10 +38885,12 @@
       <c r="GK187" s="37"/>
       <c r="GL187" s="37"/>
       <c r="GM187" s="37"/>
-      <c r="GN187" s="36"/>
-      <c r="GO187" s="36"/>
+      <c r="GN187" s="37"/>
+      <c r="GO187" s="37"/>
+      <c r="GP187" s="36"/>
+      <c r="GQ187" s="36"/>
     </row>
-    <row r="188" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="188" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -38694,10 +39086,12 @@
       <c r="GK188" s="37"/>
       <c r="GL188" s="37"/>
       <c r="GM188" s="37"/>
-      <c r="GN188" s="36"/>
-      <c r="GO188" s="36"/>
+      <c r="GN188" s="37"/>
+      <c r="GO188" s="37"/>
+      <c r="GP188" s="36"/>
+      <c r="GQ188" s="36"/>
     </row>
-    <row r="189" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="189" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -38893,10 +39287,12 @@
       <c r="GK189" s="37"/>
       <c r="GL189" s="37"/>
       <c r="GM189" s="37"/>
-      <c r="GN189" s="36"/>
-      <c r="GO189" s="36"/>
+      <c r="GN189" s="37"/>
+      <c r="GO189" s="37"/>
+      <c r="GP189" s="36"/>
+      <c r="GQ189" s="36"/>
     </row>
-    <row r="190" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="190" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -39092,10 +39488,12 @@
       <c r="GK190" s="37"/>
       <c r="GL190" s="37"/>
       <c r="GM190" s="37"/>
-      <c r="GN190" s="36"/>
-      <c r="GO190" s="36"/>
+      <c r="GN190" s="37"/>
+      <c r="GO190" s="37"/>
+      <c r="GP190" s="36"/>
+      <c r="GQ190" s="36"/>
     </row>
-    <row r="191" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="191" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -39291,10 +39689,12 @@
       <c r="GK191" s="37"/>
       <c r="GL191" s="37"/>
       <c r="GM191" s="37"/>
-      <c r="GN191" s="36"/>
-      <c r="GO191" s="36"/>
+      <c r="GN191" s="37"/>
+      <c r="GO191" s="37"/>
+      <c r="GP191" s="36"/>
+      <c r="GQ191" s="36"/>
     </row>
-    <row r="192" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="192" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -39490,10 +39890,12 @@
       <c r="GK192" s="37"/>
       <c r="GL192" s="37"/>
       <c r="GM192" s="37"/>
-      <c r="GN192" s="36"/>
-      <c r="GO192" s="36"/>
+      <c r="GN192" s="37"/>
+      <c r="GO192" s="37"/>
+      <c r="GP192" s="36"/>
+      <c r="GQ192" s="36"/>
     </row>
-    <row r="193" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="193" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -39689,10 +40091,12 @@
       <c r="GK193" s="37"/>
       <c r="GL193" s="37"/>
       <c r="GM193" s="37"/>
-      <c r="GN193" s="36"/>
-      <c r="GO193" s="36"/>
+      <c r="GN193" s="37"/>
+      <c r="GO193" s="37"/>
+      <c r="GP193" s="36"/>
+      <c r="GQ193" s="36"/>
     </row>
-    <row r="194" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="194" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -39888,10 +40292,12 @@
       <c r="GK194" s="37"/>
       <c r="GL194" s="37"/>
       <c r="GM194" s="37"/>
-      <c r="GN194" s="36"/>
-      <c r="GO194" s="36"/>
+      <c r="GN194" s="37"/>
+      <c r="GO194" s="37"/>
+      <c r="GP194" s="36"/>
+      <c r="GQ194" s="36"/>
     </row>
-    <row r="195" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="195" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -40087,10 +40493,12 @@
       <c r="GK195" s="37"/>
       <c r="GL195" s="37"/>
       <c r="GM195" s="37"/>
-      <c r="GN195" s="36"/>
-      <c r="GO195" s="36"/>
+      <c r="GN195" s="37"/>
+      <c r="GO195" s="37"/>
+      <c r="GP195" s="36"/>
+      <c r="GQ195" s="36"/>
     </row>
-    <row r="196" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="196" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -40286,10 +40694,12 @@
       <c r="GK196" s="37"/>
       <c r="GL196" s="37"/>
       <c r="GM196" s="37"/>
-      <c r="GN196" s="36"/>
-      <c r="GO196" s="36"/>
+      <c r="GN196" s="37"/>
+      <c r="GO196" s="37"/>
+      <c r="GP196" s="36"/>
+      <c r="GQ196" s="36"/>
     </row>
-    <row r="197" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="197" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -40485,10 +40895,12 @@
       <c r="GK197" s="37"/>
       <c r="GL197" s="37"/>
       <c r="GM197" s="37"/>
-      <c r="GN197" s="36"/>
-      <c r="GO197" s="36"/>
+      <c r="GN197" s="37"/>
+      <c r="GO197" s="37"/>
+      <c r="GP197" s="36"/>
+      <c r="GQ197" s="36"/>
     </row>
-    <row r="198" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="198" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -40684,10 +41096,12 @@
       <c r="GK198" s="37"/>
       <c r="GL198" s="37"/>
       <c r="GM198" s="37"/>
-      <c r="GN198" s="36"/>
-      <c r="GO198" s="36"/>
+      <c r="GN198" s="37"/>
+      <c r="GO198" s="37"/>
+      <c r="GP198" s="36"/>
+      <c r="GQ198" s="36"/>
     </row>
-    <row r="199" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="199" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -40883,10 +41297,12 @@
       <c r="GK199" s="37"/>
       <c r="GL199" s="37"/>
       <c r="GM199" s="37"/>
-      <c r="GN199" s="36"/>
-      <c r="GO199" s="36"/>
+      <c r="GN199" s="37"/>
+      <c r="GO199" s="37"/>
+      <c r="GP199" s="36"/>
+      <c r="GQ199" s="36"/>
     </row>
-    <row r="200" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="200" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -41082,10 +41498,12 @@
       <c r="GK200" s="37"/>
       <c r="GL200" s="37"/>
       <c r="GM200" s="37"/>
-      <c r="GN200" s="36"/>
-      <c r="GO200" s="36"/>
+      <c r="GN200" s="37"/>
+      <c r="GO200" s="37"/>
+      <c r="GP200" s="36"/>
+      <c r="GQ200" s="36"/>
     </row>
-    <row r="201" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="201" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -41281,10 +41699,12 @@
       <c r="GK201" s="37"/>
       <c r="GL201" s="37"/>
       <c r="GM201" s="37"/>
-      <c r="GN201" s="36"/>
-      <c r="GO201" s="36"/>
+      <c r="GN201" s="37"/>
+      <c r="GO201" s="37"/>
+      <c r="GP201" s="36"/>
+      <c r="GQ201" s="36"/>
     </row>
-    <row r="202" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="202" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -41480,10 +41900,12 @@
       <c r="GK202" s="37"/>
       <c r="GL202" s="37"/>
       <c r="GM202" s="37"/>
-      <c r="GN202" s="36"/>
-      <c r="GO202" s="36"/>
+      <c r="GN202" s="37"/>
+      <c r="GO202" s="37"/>
+      <c r="GP202" s="36"/>
+      <c r="GQ202" s="36"/>
     </row>
-    <row r="203" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="203" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -41679,10 +42101,12 @@
       <c r="GK203" s="37"/>
       <c r="GL203" s="37"/>
       <c r="GM203" s="37"/>
-      <c r="GN203" s="36"/>
-      <c r="GO203" s="36"/>
+      <c r="GN203" s="37"/>
+      <c r="GO203" s="37"/>
+      <c r="GP203" s="36"/>
+      <c r="GQ203" s="36"/>
     </row>
-    <row r="204" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="204" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -41878,10 +42302,12 @@
       <c r="GK204" s="37"/>
       <c r="GL204" s="37"/>
       <c r="GM204" s="37"/>
-      <c r="GN204" s="36"/>
-      <c r="GO204" s="36"/>
+      <c r="GN204" s="37"/>
+      <c r="GO204" s="37"/>
+      <c r="GP204" s="36"/>
+      <c r="GQ204" s="36"/>
     </row>
-    <row r="205" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="205" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -42077,10 +42503,12 @@
       <c r="GK205" s="37"/>
       <c r="GL205" s="37"/>
       <c r="GM205" s="37"/>
-      <c r="GN205" s="36"/>
-      <c r="GO205" s="36"/>
+      <c r="GN205" s="37"/>
+      <c r="GO205" s="37"/>
+      <c r="GP205" s="36"/>
+      <c r="GQ205" s="36"/>
     </row>
-    <row r="206" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="206" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -42276,10 +42704,12 @@
       <c r="GK206" s="37"/>
       <c r="GL206" s="37"/>
       <c r="GM206" s="37"/>
-      <c r="GN206" s="36"/>
-      <c r="GO206" s="36"/>
+      <c r="GN206" s="37"/>
+      <c r="GO206" s="37"/>
+      <c r="GP206" s="36"/>
+      <c r="GQ206" s="36"/>
     </row>
-    <row r="207" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="207" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -42475,10 +42905,12 @@
       <c r="GK207" s="37"/>
       <c r="GL207" s="37"/>
       <c r="GM207" s="37"/>
-      <c r="GN207" s="36"/>
-      <c r="GO207" s="36"/>
+      <c r="GN207" s="37"/>
+      <c r="GO207" s="37"/>
+      <c r="GP207" s="36"/>
+      <c r="GQ207" s="36"/>
     </row>
-    <row r="208" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="208" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -42674,10 +43106,12 @@
       <c r="GK208" s="37"/>
       <c r="GL208" s="37"/>
       <c r="GM208" s="37"/>
-      <c r="GN208" s="36"/>
-      <c r="GO208" s="36"/>
+      <c r="GN208" s="37"/>
+      <c r="GO208" s="37"/>
+      <c r="GP208" s="36"/>
+      <c r="GQ208" s="36"/>
     </row>
-    <row r="209" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="209" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -42873,10 +43307,12 @@
       <c r="GK209" s="37"/>
       <c r="GL209" s="37"/>
       <c r="GM209" s="37"/>
-      <c r="GN209" s="36"/>
-      <c r="GO209" s="36"/>
+      <c r="GN209" s="37"/>
+      <c r="GO209" s="37"/>
+      <c r="GP209" s="36"/>
+      <c r="GQ209" s="36"/>
     </row>
-    <row r="210" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="210" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -43072,10 +43508,12 @@
       <c r="GK210" s="37"/>
       <c r="GL210" s="37"/>
       <c r="GM210" s="37"/>
-      <c r="GN210" s="36"/>
-      <c r="GO210" s="36"/>
+      <c r="GN210" s="37"/>
+      <c r="GO210" s="37"/>
+      <c r="GP210" s="36"/>
+      <c r="GQ210" s="36"/>
     </row>
-    <row r="211" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="211" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -43271,10 +43709,12 @@
       <c r="GK211" s="37"/>
       <c r="GL211" s="37"/>
       <c r="GM211" s="37"/>
-      <c r="GN211" s="36"/>
-      <c r="GO211" s="36"/>
+      <c r="GN211" s="37"/>
+      <c r="GO211" s="37"/>
+      <c r="GP211" s="36"/>
+      <c r="GQ211" s="36"/>
     </row>
-    <row r="212" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="212" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -43470,10 +43910,12 @@
       <c r="GK212" s="37"/>
       <c r="GL212" s="37"/>
       <c r="GM212" s="37"/>
-      <c r="GN212" s="36"/>
-      <c r="GO212" s="36"/>
+      <c r="GN212" s="37"/>
+      <c r="GO212" s="37"/>
+      <c r="GP212" s="36"/>
+      <c r="GQ212" s="36"/>
     </row>
-    <row r="213" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="213" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -43669,10 +44111,12 @@
       <c r="GK213" s="37"/>
       <c r="GL213" s="37"/>
       <c r="GM213" s="37"/>
-      <c r="GN213" s="36"/>
-      <c r="GO213" s="36"/>
+      <c r="GN213" s="37"/>
+      <c r="GO213" s="37"/>
+      <c r="GP213" s="36"/>
+      <c r="GQ213" s="36"/>
     </row>
-    <row r="214" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="214" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -43868,10 +44312,12 @@
       <c r="GK214" s="37"/>
       <c r="GL214" s="37"/>
       <c r="GM214" s="37"/>
-      <c r="GN214" s="36"/>
-      <c r="GO214" s="36"/>
+      <c r="GN214" s="37"/>
+      <c r="GO214" s="37"/>
+      <c r="GP214" s="36"/>
+      <c r="GQ214" s="36"/>
     </row>
-    <row r="215" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="215" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -44067,10 +44513,12 @@
       <c r="GK215" s="37"/>
       <c r="GL215" s="37"/>
       <c r="GM215" s="37"/>
-      <c r="GN215" s="36"/>
-      <c r="GO215" s="36"/>
+      <c r="GN215" s="37"/>
+      <c r="GO215" s="37"/>
+      <c r="GP215" s="36"/>
+      <c r="GQ215" s="36"/>
     </row>
-    <row r="216" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="216" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -44266,10 +44714,12 @@
       <c r="GK216" s="37"/>
       <c r="GL216" s="37"/>
       <c r="GM216" s="37"/>
-      <c r="GN216" s="36"/>
-      <c r="GO216" s="36"/>
+      <c r="GN216" s="37"/>
+      <c r="GO216" s="37"/>
+      <c r="GP216" s="36"/>
+      <c r="GQ216" s="36"/>
     </row>
-    <row r="217" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="217" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -44465,10 +44915,12 @@
       <c r="GK217" s="37"/>
       <c r="GL217" s="37"/>
       <c r="GM217" s="37"/>
-      <c r="GN217" s="36"/>
-      <c r="GO217" s="36"/>
+      <c r="GN217" s="37"/>
+      <c r="GO217" s="37"/>
+      <c r="GP217" s="36"/>
+      <c r="GQ217" s="36"/>
     </row>
-    <row r="218" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="218" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -44664,10 +45116,12 @@
       <c r="GK218" s="37"/>
       <c r="GL218" s="37"/>
       <c r="GM218" s="37"/>
-      <c r="GN218" s="36"/>
-      <c r="GO218" s="36"/>
+      <c r="GN218" s="37"/>
+      <c r="GO218" s="37"/>
+      <c r="GP218" s="36"/>
+      <c r="GQ218" s="36"/>
     </row>
-    <row r="219" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="219" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -44863,10 +45317,12 @@
       <c r="GK219" s="37"/>
       <c r="GL219" s="37"/>
       <c r="GM219" s="37"/>
-      <c r="GN219" s="36"/>
-      <c r="GO219" s="36"/>
+      <c r="GN219" s="37"/>
+      <c r="GO219" s="37"/>
+      <c r="GP219" s="36"/>
+      <c r="GQ219" s="36"/>
     </row>
-    <row r="220" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="220" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -45062,10 +45518,12 @@
       <c r="GK220" s="37"/>
       <c r="GL220" s="37"/>
       <c r="GM220" s="37"/>
-      <c r="GN220" s="36"/>
-      <c r="GO220" s="36"/>
+      <c r="GN220" s="37"/>
+      <c r="GO220" s="37"/>
+      <c r="GP220" s="36"/>
+      <c r="GQ220" s="36"/>
     </row>
-    <row r="221" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="221" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -45261,10 +45719,12 @@
       <c r="GK221" s="37"/>
       <c r="GL221" s="37"/>
       <c r="GM221" s="37"/>
-      <c r="GN221" s="36"/>
-      <c r="GO221" s="36"/>
+      <c r="GN221" s="37"/>
+      <c r="GO221" s="37"/>
+      <c r="GP221" s="36"/>
+      <c r="GQ221" s="36"/>
     </row>
-    <row r="222" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="222" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -45460,10 +45920,12 @@
       <c r="GK222" s="37"/>
       <c r="GL222" s="37"/>
       <c r="GM222" s="37"/>
-      <c r="GN222" s="36"/>
-      <c r="GO222" s="36"/>
+      <c r="GN222" s="37"/>
+      <c r="GO222" s="37"/>
+      <c r="GP222" s="36"/>
+      <c r="GQ222" s="36"/>
     </row>
-    <row r="223" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="223" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -45659,10 +46121,12 @@
       <c r="GK223" s="37"/>
       <c r="GL223" s="37"/>
       <c r="GM223" s="37"/>
-      <c r="GN223" s="36"/>
-      <c r="GO223" s="36"/>
+      <c r="GN223" s="37"/>
+      <c r="GO223" s="37"/>
+      <c r="GP223" s="36"/>
+      <c r="GQ223" s="36"/>
     </row>
-    <row r="224" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="224" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -45858,10 +46322,12 @@
       <c r="GK224" s="37"/>
       <c r="GL224" s="37"/>
       <c r="GM224" s="37"/>
-      <c r="GN224" s="36"/>
-      <c r="GO224" s="36"/>
+      <c r="GN224" s="37"/>
+      <c r="GO224" s="37"/>
+      <c r="GP224" s="36"/>
+      <c r="GQ224" s="36"/>
     </row>
-    <row r="225" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="225" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -46057,10 +46523,12 @@
       <c r="GK225" s="37"/>
       <c r="GL225" s="37"/>
       <c r="GM225" s="37"/>
-      <c r="GN225" s="36"/>
-      <c r="GO225" s="36"/>
+      <c r="GN225" s="37"/>
+      <c r="GO225" s="37"/>
+      <c r="GP225" s="36"/>
+      <c r="GQ225" s="36"/>
     </row>
-    <row r="226" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="226" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -46256,10 +46724,12 @@
       <c r="GK226" s="37"/>
       <c r="GL226" s="37"/>
       <c r="GM226" s="37"/>
-      <c r="GN226" s="36"/>
-      <c r="GO226" s="36"/>
+      <c r="GN226" s="37"/>
+      <c r="GO226" s="37"/>
+      <c r="GP226" s="36"/>
+      <c r="GQ226" s="36"/>
     </row>
-    <row r="227" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="227" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -46455,10 +46925,12 @@
       <c r="GK227" s="37"/>
       <c r="GL227" s="37"/>
       <c r="GM227" s="37"/>
-      <c r="GN227" s="36"/>
-      <c r="GO227" s="36"/>
+      <c r="GN227" s="37"/>
+      <c r="GO227" s="37"/>
+      <c r="GP227" s="36"/>
+      <c r="GQ227" s="36"/>
     </row>
-    <row r="228" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="228" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -46654,10 +47126,12 @@
       <c r="GK228" s="37"/>
       <c r="GL228" s="37"/>
       <c r="GM228" s="37"/>
-      <c r="GN228" s="36"/>
-      <c r="GO228" s="36"/>
+      <c r="GN228" s="37"/>
+      <c r="GO228" s="37"/>
+      <c r="GP228" s="36"/>
+      <c r="GQ228" s="36"/>
     </row>
-    <row r="229" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="229" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -46853,10 +47327,12 @@
       <c r="GK229" s="37"/>
       <c r="GL229" s="37"/>
       <c r="GM229" s="37"/>
-      <c r="GN229" s="36"/>
-      <c r="GO229" s="36"/>
+      <c r="GN229" s="37"/>
+      <c r="GO229" s="37"/>
+      <c r="GP229" s="36"/>
+      <c r="GQ229" s="36"/>
     </row>
-    <row r="230" spans="1:197" s="38" customFormat="1" ht="26.25" customHeight="1">
+    <row r="230" spans="1:199" s="38" customFormat="1" ht="26.25" customHeight="1">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -47052,10 +47528,12 @@
       <c r="GK230" s="37"/>
       <c r="GL230" s="37"/>
       <c r="GM230" s="37"/>
-      <c r="GN230" s="36"/>
-      <c r="GO230" s="36"/>
+      <c r="GN230" s="37"/>
+      <c r="GO230" s="37"/>
+      <c r="GP230" s="36"/>
+      <c r="GQ230" s="36"/>
     </row>
-    <row r="231" spans="1:197" s="11" customFormat="1" ht="12.75" customHeight="1">
+    <row r="231" spans="1:199" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -47251,31 +47729,33 @@
       <c r="GK231" s="10"/>
       <c r="GL231" s="10"/>
       <c r="GM231" s="10"/>
-      <c r="GN231" s="9"/>
-      <c r="GO231" s="9"/>
+      <c r="GN231" s="10"/>
+      <c r="GO231" s="10"/>
+      <c r="GP231" s="9"/>
+      <c r="GQ231" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:HB7"/>
+  <autoFilter ref="A4:HD7"/>
   <sortState ref="A4:A230">
     <sortCondition ref="A4:A230"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="A1:GM1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AX2"/>
-    <mergeCell ref="AY2:BS2"/>
-    <mergeCell ref="BT2:CM2"/>
-    <mergeCell ref="CN2:CS2"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CX2:DM2"/>
-    <mergeCell ref="DN2:DU2"/>
-    <mergeCell ref="DV2:EB2"/>
-    <mergeCell ref="EC2:FF2"/>
-    <mergeCell ref="FG2:FY2"/>
-    <mergeCell ref="FZ2:GI2"/>
-    <mergeCell ref="GK2:GL2"/>
-    <mergeCell ref="GM2:HB2"/>
+    <mergeCell ref="A1:GO1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AZ2"/>
+    <mergeCell ref="BA2:BU2"/>
+    <mergeCell ref="BV2:CO2"/>
+    <mergeCell ref="CP2:CU2"/>
+    <mergeCell ref="CV2:CX2"/>
+    <mergeCell ref="CZ2:DO2"/>
+    <mergeCell ref="DP2:DW2"/>
+    <mergeCell ref="DX2:ED2"/>
+    <mergeCell ref="EE2:FH2"/>
+    <mergeCell ref="FI2:GA2"/>
+    <mergeCell ref="GB2:GK2"/>
+    <mergeCell ref="GM2:GN2"/>
+    <mergeCell ref="GO2:HD2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N5:N7">
